--- a/name/vnindex/20230209/VNINDEX_HOSE_5p_20230209.xlsx
+++ b/name/vnindex/20230209/VNINDEX_HOSE_5p_20230209.xlsx
@@ -466,25 +466,25 @@
         <v>2893900</v>
       </c>
       <c r="E2">
-        <v>22928492000</v>
+        <v>19913210300</v>
       </c>
       <c r="F2">
-        <v>15669290000</v>
+        <v>15207252500</v>
       </c>
       <c r="G2">
-        <v>28811521000</v>
+        <v>24892044400</v>
       </c>
       <c r="H2">
         <v>6015400</v>
       </c>
       <c r="I2">
-        <v>67409303000</v>
+        <v>60012507200</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-09T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>67409303000</v>
+        <v>60012507200</v>
       </c>
       <c r="L2">
         <v>6015400</v>
@@ -493,13 +493,13 @@
         <v>-1192300</v>
       </c>
       <c r="N2">
-        <v>-7259202000</v>
+        <v>-4705957800</v>
       </c>
       <c r="O2">
         <v>-1192300</v>
       </c>
       <c r="P2">
-        <v>-7259202000</v>
+        <v>-4705957800</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>20000</v>
       </c>
       <c r="E3">
-        <v>16851458000</v>
+        <v>15863946500</v>
       </c>
       <c r="F3">
-        <v>24560656000</v>
+        <v>21223396600</v>
       </c>
       <c r="G3">
         <v>380195000</v>
@@ -528,13 +528,13 @@
         <v>3253200</v>
       </c>
       <c r="I3">
-        <v>41792309000</v>
+        <v>37467538100</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-09T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>109201612000</v>
+        <v>97480045300</v>
       </c>
       <c r="L3">
         <v>9268600</v>
@@ -543,13 +543,13 @@
         <v>60400</v>
       </c>
       <c r="N3">
-        <v>7709198000</v>
+        <v>5359450100</v>
       </c>
       <c r="O3">
         <v>-1131900</v>
       </c>
       <c r="P3">
-        <v>449996000</v>
+        <v>653492300</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>52000</v>
       </c>
       <c r="E4">
-        <v>12851331000</v>
+        <v>12192990000</v>
       </c>
       <c r="F4">
-        <v>25425854000</v>
+        <v>23456924900</v>
       </c>
       <c r="G4">
         <v>980873000</v>
@@ -578,13 +578,13 @@
         <v>2214500</v>
       </c>
       <c r="I4">
-        <v>39258058000</v>
+        <v>36630787900</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-09T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>148459670000</v>
+        <v>134110833200</v>
       </c>
       <c r="L4">
         <v>11483100</v>
@@ -593,13 +593,13 @@
         <v>510700</v>
       </c>
       <c r="N4">
-        <v>12574523000</v>
+        <v>11263934900</v>
       </c>
       <c r="O4">
         <v>-621200</v>
       </c>
       <c r="P4">
-        <v>13024519000</v>
+        <v>11917427200</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>18700</v>
       </c>
       <c r="E5">
-        <v>27097712000</v>
+        <v>26546663600</v>
       </c>
       <c r="F5">
-        <v>22864205000</v>
+        <v>19392280400</v>
       </c>
       <c r="G5">
-        <v>145540000</v>
+        <v>94790800</v>
       </c>
       <c r="H5">
         <v>2639700</v>
       </c>
       <c r="I5">
-        <v>50107457000</v>
+        <v>46033734800</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-09T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>198567127000</v>
+        <v>180144568000</v>
       </c>
       <c r="L5">
         <v>14122800</v>
@@ -643,13 +643,13 @@
         <v>-299800</v>
       </c>
       <c r="N5">
-        <v>-4233507000</v>
+        <v>-7154383200</v>
       </c>
       <c r="O5">
         <v>-921000</v>
       </c>
       <c r="P5">
-        <v>8791012000</v>
+        <v>4763044000</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>3100</v>
       </c>
       <c r="E6">
-        <v>30495411000</v>
+        <v>29189418300</v>
       </c>
       <c r="F6">
-        <v>24999963000</v>
+        <v>23703061200</v>
       </c>
       <c r="G6">
         <v>21925000</v>
@@ -678,13 +678,13 @@
         <v>3050200</v>
       </c>
       <c r="I6">
-        <v>55517299000</v>
+        <v>52914404500</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-09T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>254084426000</v>
+        <v>233058972500</v>
       </c>
       <c r="L6">
         <v>17173000</v>
@@ -693,13 +693,13 @@
         <v>-472900</v>
       </c>
       <c r="N6">
-        <v>-5495448000</v>
+        <v>-5486357100</v>
       </c>
       <c r="O6">
         <v>-1393900</v>
       </c>
       <c r="P6">
-        <v>3295564000</v>
+        <v>-723313100</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>800</v>
       </c>
       <c r="E7">
-        <v>30881563000</v>
+        <v>28303443700</v>
       </c>
       <c r="F7">
-        <v>12223074000</v>
+        <v>10898200200</v>
       </c>
       <c r="G7">
         <v>10172000</v>
@@ -728,13 +728,13 @@
         <v>2416400</v>
       </c>
       <c r="I7">
-        <v>43114809000</v>
+        <v>39211815900</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-09T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>297199235000</v>
+        <v>272270788400</v>
       </c>
       <c r="L7">
         <v>19589400</v>
@@ -743,13 +743,13 @@
         <v>-935400</v>
       </c>
       <c r="N7">
-        <v>-18658489000</v>
+        <v>-17405243500</v>
       </c>
       <c r="O7">
         <v>-2329300</v>
       </c>
       <c r="P7">
-        <v>-15362925000</v>
+        <v>-18128556600</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>1500</v>
       </c>
       <c r="E8">
-        <v>18845490000</v>
+        <v>18149386800</v>
       </c>
       <c r="F8">
-        <v>10794050000</v>
+        <v>9620324900</v>
       </c>
       <c r="G8">
         <v>12472000</v>
@@ -778,13 +778,13 @@
         <v>1853900</v>
       </c>
       <c r="I8">
-        <v>29652012000</v>
+        <v>27782183700</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-09T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>326851247000</v>
+        <v>300052972100</v>
       </c>
       <c r="L8">
         <v>21443300</v>
@@ -793,13 +793,13 @@
         <v>-603200</v>
       </c>
       <c r="N8">
-        <v>-8051440000</v>
+        <v>-8529061900</v>
       </c>
       <c r="O8">
         <v>-2932500</v>
       </c>
       <c r="P8">
-        <v>-23414365000</v>
+        <v>-26657618500</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>14200</v>
       </c>
       <c r="E9">
-        <v>13098771000</v>
+        <v>12151019700</v>
       </c>
       <c r="F9">
-        <v>17048516000</v>
+        <v>16099665800</v>
       </c>
       <c r="G9">
         <v>222468000</v>
@@ -828,13 +828,13 @@
         <v>2034400</v>
       </c>
       <c r="I9">
-        <v>30369755000</v>
+        <v>28473153500</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-09T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>357221002000</v>
+        <v>328526125600</v>
       </c>
       <c r="L9">
         <v>23477700</v>
@@ -843,13 +843,13 @@
         <v>284400</v>
       </c>
       <c r="N9">
-        <v>3949745000</v>
+        <v>3948646100</v>
       </c>
       <c r="O9">
         <v>-2648100</v>
       </c>
       <c r="P9">
-        <v>-19464620000</v>
+        <v>-22708972400</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>5200</v>
       </c>
       <c r="E10">
-        <v>30214967000</v>
+        <v>28983699500</v>
       </c>
       <c r="F10">
-        <v>19529446000</v>
+        <v>18472004500</v>
       </c>
       <c r="G10">
         <v>126500000</v>
@@ -878,13 +878,13 @@
         <v>2805300</v>
       </c>
       <c r="I10">
-        <v>49870913000</v>
+        <v>47582204000</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-09T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>407091915000</v>
+        <v>376108329600</v>
       </c>
       <c r="L10">
         <v>26283000</v>
@@ -893,13 +893,13 @@
         <v>-405100</v>
       </c>
       <c r="N10">
-        <v>-10685521000</v>
+        <v>-10511695000</v>
       </c>
       <c r="O10">
         <v>-3053200</v>
       </c>
       <c r="P10">
-        <v>-30150141000</v>
+        <v>-33220667400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>1900</v>
       </c>
       <c r="E11">
-        <v>13448074000</v>
+        <v>13063059400</v>
       </c>
       <c r="F11">
-        <v>10361942000</v>
+        <v>10227476600</v>
       </c>
       <c r="G11">
         <v>16758000</v>
@@ -928,13 +928,13 @@
         <v>1767200</v>
       </c>
       <c r="I11">
-        <v>23826774000</v>
+        <v>23307294000</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-09T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>430918689000</v>
+        <v>399415623600</v>
       </c>
       <c r="L11">
         <v>28050200</v>
@@ -943,13 +943,13 @@
         <v>-111100</v>
       </c>
       <c r="N11">
-        <v>-3086132000</v>
+        <v>-2835582800</v>
       </c>
       <c r="O11">
         <v>-3164300</v>
       </c>
       <c r="P11">
-        <v>-33236273000</v>
+        <v>-36056250200</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>6400</v>
       </c>
       <c r="E12">
-        <v>16223941000</v>
+        <v>15368097700</v>
       </c>
       <c r="F12">
-        <v>16807842000</v>
+        <v>16350300000</v>
       </c>
       <c r="G12">
         <v>83660000</v>
@@ -978,13 +978,13 @@
         <v>1951000</v>
       </c>
       <c r="I12">
-        <v>33115443000</v>
+        <v>31802057700</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-09T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>464034132000</v>
+        <v>431217681300</v>
       </c>
       <c r="L12">
         <v>30001200</v>
@@ -993,13 +993,13 @@
         <v>94600</v>
       </c>
       <c r="N12">
-        <v>583901000</v>
+        <v>982202300</v>
       </c>
       <c r="O12">
         <v>-3069700</v>
       </c>
       <c r="P12">
-        <v>-32652372000</v>
+        <v>-35074047900</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>3100</v>
       </c>
       <c r="E13">
-        <v>21890657000</v>
+        <v>20732416400</v>
       </c>
       <c r="F13">
-        <v>15420822000</v>
+        <v>15001441800</v>
       </c>
       <c r="G13">
         <v>31086000</v>
@@ -1028,13 +1028,13 @@
         <v>2251500</v>
       </c>
       <c r="I13">
-        <v>37342565000</v>
+        <v>35764944200</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-09T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>501376697000</v>
+        <v>466982625500</v>
       </c>
       <c r="L13">
         <v>32252700</v>
@@ -1043,13 +1043,13 @@
         <v>85800</v>
       </c>
       <c r="N13">
-        <v>-6469835000</v>
+        <v>-5730974600</v>
       </c>
       <c r="O13">
         <v>-2983900</v>
       </c>
       <c r="P13">
-        <v>-39122207000</v>
+        <v>-40805022500</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>10500</v>
       </c>
       <c r="E14">
-        <v>14666957000</v>
+        <v>14147277200</v>
       </c>
       <c r="F14">
-        <v>19795406000</v>
+        <v>17310093800</v>
       </c>
       <c r="G14">
         <v>95575000.00000001</v>
@@ -1078,13 +1078,13 @@
         <v>2079800</v>
       </c>
       <c r="I14">
-        <v>34557938000</v>
+        <v>31552946000</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-09T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>535934635000</v>
+        <v>498535571500</v>
       </c>
       <c r="L14">
         <v>34332500</v>
@@ -1093,13 +1093,13 @@
         <v>393500</v>
       </c>
       <c r="N14">
-        <v>5128449000</v>
+        <v>3162816600</v>
       </c>
       <c r="O14">
         <v>-2590400</v>
       </c>
       <c r="P14">
-        <v>-33993758000</v>
+        <v>-37642205900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>3400</v>
       </c>
       <c r="E15">
-        <v>14448410000</v>
+        <v>14058899900</v>
       </c>
       <c r="F15">
-        <v>22021080000</v>
+        <v>21169632300</v>
       </c>
       <c r="G15">
         <v>38302000</v>
@@ -1128,13 +1128,13 @@
         <v>2109200</v>
       </c>
       <c r="I15">
-        <v>36507792000</v>
+        <v>35266834200</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-09T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>572442427000</v>
+        <v>533802405700</v>
       </c>
       <c r="L15">
         <v>36441700</v>
@@ -1143,13 +1143,13 @@
         <v>383400</v>
       </c>
       <c r="N15">
-        <v>7572670000</v>
+        <v>7110732400</v>
       </c>
       <c r="O15">
         <v>-2207000</v>
       </c>
       <c r="P15">
-        <v>-26421088000</v>
+        <v>-30531473500</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>13800</v>
       </c>
       <c r="E16">
-        <v>11961130000</v>
+        <v>11531360200</v>
       </c>
       <c r="F16">
-        <v>29469906000</v>
+        <v>28432444500</v>
       </c>
       <c r="G16">
         <v>118428000</v>
@@ -1178,13 +1178,13 @@
         <v>2323800</v>
       </c>
       <c r="I16">
-        <v>41549464000</v>
+        <v>40082232700</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-09T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>613991891000</v>
+        <v>573884638400</v>
       </c>
       <c r="L16">
         <v>38765500</v>
@@ -1193,13 +1193,13 @@
         <v>776200</v>
       </c>
       <c r="N16">
-        <v>17508776000</v>
+        <v>16901084300</v>
       </c>
       <c r="O16">
         <v>-1430800</v>
       </c>
       <c r="P16">
-        <v>-8912312000</v>
+        <v>-13630389200</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5600</v>
       </c>
       <c r="E17">
-        <v>14414654000</v>
+        <v>13977791300</v>
       </c>
       <c r="F17">
-        <v>31912970000</v>
+        <v>26663624600</v>
       </c>
       <c r="G17">
         <v>151435000</v>
@@ -1228,13 +1228,13 @@
         <v>2594400</v>
       </c>
       <c r="I17">
-        <v>46479059000</v>
+        <v>40792850900</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-09T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>660470950000</v>
+        <v>614677489300</v>
       </c>
       <c r="L17">
         <v>41359900</v>
@@ -1243,13 +1243,13 @@
         <v>1032400</v>
       </c>
       <c r="N17">
-        <v>17498316000</v>
+        <v>12685833300</v>
       </c>
       <c r="O17">
         <v>-398400</v>
       </c>
       <c r="P17">
-        <v>8586004000</v>
+        <v>-944555900</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>3400</v>
       </c>
       <c r="E18">
-        <v>9483063000</v>
+        <v>9439606500</v>
       </c>
       <c r="F18">
-        <v>31844332000</v>
+        <v>27736344100</v>
       </c>
       <c r="G18">
-        <v>35915000</v>
+        <v>25425500</v>
       </c>
       <c r="H18">
         <v>2436000</v>
       </c>
       <c r="I18">
-        <v>41363310000</v>
+        <v>37201376100</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-09T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>701834260000</v>
+        <v>651878865400</v>
       </c>
       <c r="L18">
         <v>43795900</v>
@@ -1293,13 +1293,13 @@
         <v>1155200</v>
       </c>
       <c r="N18">
-        <v>22361269000</v>
+        <v>18296737600</v>
       </c>
       <c r="O18">
         <v>756800</v>
       </c>
       <c r="P18">
-        <v>30947273000</v>
+        <v>17352181700</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>300</v>
       </c>
       <c r="E19">
-        <v>17175488000</v>
+        <v>17076187400</v>
       </c>
       <c r="F19">
-        <v>29744920000</v>
+        <v>27891275500</v>
       </c>
       <c r="G19">
         <v>23765000</v>
@@ -1328,13 +1328,13 @@
         <v>3062100</v>
       </c>
       <c r="I19">
-        <v>46944173000</v>
+        <v>44991227900</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-09T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>748778433000</v>
+        <v>696870093300</v>
       </c>
       <c r="L19">
         <v>46858000</v>
@@ -1343,13 +1343,13 @@
         <v>874600</v>
       </c>
       <c r="N19">
-        <v>12569432000</v>
+        <v>10815088100</v>
       </c>
       <c r="O19">
         <v>1631400</v>
       </c>
       <c r="P19">
-        <v>43516705000</v>
+        <v>28167269800</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>15600</v>
       </c>
       <c r="E20">
-        <v>10695088000</v>
+        <v>9672511600</v>
       </c>
       <c r="F20">
-        <v>38012133000</v>
+        <v>33510439200</v>
       </c>
       <c r="G20">
         <v>218070000</v>
@@ -1378,13 +1378,13 @@
         <v>2901200</v>
       </c>
       <c r="I20">
-        <v>48925291000</v>
+        <v>43401020800</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-09T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>797703724000</v>
+        <v>740271114100</v>
       </c>
       <c r="L20">
         <v>49759200</v>
@@ -1393,13 +1393,13 @@
         <v>1595600</v>
       </c>
       <c r="N20">
-        <v>27317045000</v>
+        <v>23837927600</v>
       </c>
       <c r="O20">
         <v>3227000</v>
       </c>
       <c r="P20">
-        <v>70833750000</v>
+        <v>52005197400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>4500</v>
       </c>
       <c r="E21">
-        <v>16852061000</v>
+        <v>15296418200</v>
       </c>
       <c r="F21">
-        <v>48746568000</v>
+        <v>43738581000</v>
       </c>
       <c r="G21">
         <v>87770000</v>
@@ -1428,13 +1428,13 @@
         <v>3977200</v>
       </c>
       <c r="I21">
-        <v>65686399000</v>
+        <v>59122769200</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-09T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>863390123000</v>
+        <v>799393883300</v>
       </c>
       <c r="L21">
         <v>53736400</v>
@@ -1443,13 +1443,13 @@
         <v>1406700</v>
       </c>
       <c r="N21">
-        <v>31894507000</v>
+        <v>28442162800</v>
       </c>
       <c r="O21">
         <v>4633700</v>
       </c>
       <c r="P21">
-        <v>102728257000</v>
+        <v>80447360200</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>4100</v>
       </c>
       <c r="E22">
-        <v>9974461000</v>
+        <v>9802433200</v>
       </c>
       <c r="F22">
-        <v>50593654000</v>
+        <v>32306459500</v>
       </c>
       <c r="G22">
         <v>66768000</v>
@@ -1478,13 +1478,13 @@
         <v>3295700</v>
       </c>
       <c r="I22">
-        <v>60634883000</v>
+        <v>42175660700</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-09T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>924025006000</v>
+        <v>841569544000</v>
       </c>
       <c r="L22">
         <v>57032100</v>
@@ -1493,13 +1493,13 @@
         <v>1999400</v>
       </c>
       <c r="N22">
-        <v>40619193000</v>
+        <v>22504026300</v>
       </c>
       <c r="O22">
         <v>6633100</v>
       </c>
       <c r="P22">
-        <v>143347450000</v>
+        <v>102951386500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>300</v>
       </c>
       <c r="E23">
-        <v>19459650000</v>
+        <v>18073137900</v>
       </c>
       <c r="F23">
-        <v>57897710000</v>
+        <v>36517811300</v>
       </c>
       <c r="G23">
         <v>22590000</v>
@@ -1528,13 +1528,13 @@
         <v>4028200</v>
       </c>
       <c r="I23">
-        <v>77379950000</v>
+        <v>54613539200</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-09T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1001404956000</v>
+        <v>896183083200</v>
       </c>
       <c r="L23">
         <v>61060300</v>
@@ -1543,13 +1543,13 @@
         <v>1616900</v>
       </c>
       <c r="N23">
-        <v>38438060000</v>
+        <v>18444673400</v>
       </c>
       <c r="O23">
         <v>8250000</v>
       </c>
       <c r="P23">
-        <v>181785510000</v>
+        <v>121396059900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>2700</v>
       </c>
       <c r="E24">
-        <v>20482048000</v>
+        <v>16590443500</v>
       </c>
       <c r="F24">
-        <v>48900237000</v>
+        <v>41042702400</v>
       </c>
       <c r="G24">
         <v>62590000</v>
@@ -1578,13 +1578,13 @@
         <v>3588400</v>
       </c>
       <c r="I24">
-        <v>69444875000</v>
+        <v>57695735900</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-09T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1070849831000</v>
+        <v>953878819100</v>
       </c>
       <c r="L24">
         <v>64648700</v>
@@ -1593,13 +1593,13 @@
         <v>1102500</v>
       </c>
       <c r="N24">
-        <v>28418189000</v>
+        <v>24452258900</v>
       </c>
       <c r="O24">
         <v>9352500</v>
       </c>
       <c r="P24">
-        <v>210203699000</v>
+        <v>145848318800</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>1800</v>
       </c>
       <c r="E25">
-        <v>38604713000</v>
+        <v>36984634700</v>
       </c>
       <c r="F25">
-        <v>23798485000</v>
+        <v>21477608200</v>
       </c>
       <c r="G25">
-        <v>15746000</v>
+        <v>7354400</v>
       </c>
       <c r="H25">
         <v>3320200</v>
       </c>
       <c r="I25">
-        <v>62418944000</v>
+        <v>58469597300</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-09T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1133268775000</v>
+        <v>1012348416400</v>
       </c>
       <c r="L25">
         <v>67968900</v>
@@ -1643,13 +1643,13 @@
         <v>-485000</v>
       </c>
       <c r="N25">
-        <v>-14806228000</v>
+        <v>-15507026500</v>
       </c>
       <c r="O25">
         <v>8867500</v>
       </c>
       <c r="P25">
-        <v>195397471000</v>
+        <v>130341292300</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>7100</v>
       </c>
       <c r="E26">
-        <v>23283401000</v>
+        <v>21570515600</v>
       </c>
       <c r="F26">
-        <v>17403073000</v>
+        <v>15961116400</v>
       </c>
       <c r="G26">
         <v>187590000</v>
@@ -1678,13 +1678,13 @@
         <v>2326200</v>
       </c>
       <c r="I26">
-        <v>40874064000</v>
+        <v>37719222000</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-09T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1174142839000</v>
+        <v>1050067638400</v>
       </c>
       <c r="L26">
         <v>70295100</v>
@@ -1693,13 +1693,13 @@
         <v>-496700</v>
       </c>
       <c r="N26">
-        <v>-5880328000</v>
+        <v>-5609399200</v>
       </c>
       <c r="O26">
         <v>8370800</v>
       </c>
       <c r="P26">
-        <v>189517143000</v>
+        <v>124731893100</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>18500</v>
       </c>
       <c r="E27">
-        <v>14241865000</v>
+        <v>12859249000</v>
       </c>
       <c r="F27">
-        <v>15671267000</v>
+        <v>15173665100</v>
       </c>
       <c r="G27">
         <v>369796000</v>
@@ -1728,13 +1728,13 @@
         <v>2356600</v>
       </c>
       <c r="I27">
-        <v>30282928000</v>
+        <v>28402710100</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-09T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1204425767000</v>
+        <v>1078470348500</v>
       </c>
       <c r="L27">
         <v>72651700</v>
@@ -1743,13 +1743,13 @@
         <v>699300</v>
       </c>
       <c r="N27">
-        <v>1429402000</v>
+        <v>2314416100</v>
       </c>
       <c r="O27">
         <v>9070100</v>
       </c>
       <c r="P27">
-        <v>190946545000</v>
+        <v>127046309200</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>11400</v>
       </c>
       <c r="E28">
-        <v>27074177000</v>
+        <v>25192660400</v>
       </c>
       <c r="F28">
-        <v>13783058000</v>
+        <v>12763079000</v>
       </c>
       <c r="G28">
         <v>141100000</v>
@@ -1778,13 +1778,13 @@
         <v>2533900</v>
       </c>
       <c r="I28">
-        <v>40998335000</v>
+        <v>38096839400</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-09T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1245424102000</v>
+        <v>1116567187900</v>
       </c>
       <c r="L28">
         <v>75185600</v>
@@ -1793,13 +1793,13 @@
         <v>-273500</v>
       </c>
       <c r="N28">
-        <v>-13291119000</v>
+        <v>-12429581400</v>
       </c>
       <c r="O28">
         <v>8796600</v>
       </c>
       <c r="P28">
-        <v>177655426000</v>
+        <v>114616727800</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>200</v>
       </c>
       <c r="E29">
-        <v>25733191000</v>
+        <v>23516010400</v>
       </c>
       <c r="F29">
-        <v>12492880000</v>
+        <v>10462112800</v>
       </c>
       <c r="G29">
         <v>2930000</v>
@@ -1828,13 +1828,13 @@
         <v>1952000</v>
       </c>
       <c r="I29">
-        <v>38229001000</v>
+        <v>33981053200</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-09T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1283653103000</v>
+        <v>1150548241100</v>
       </c>
       <c r="L29">
         <v>77137600</v>
@@ -1843,13 +1843,13 @@
         <v>-575400</v>
       </c>
       <c r="N29">
-        <v>-13240311000</v>
+        <v>-13053897600</v>
       </c>
       <c r="O29">
         <v>8221200</v>
       </c>
       <c r="P29">
-        <v>164415115000</v>
+        <v>101562830200</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>11385010000</v>
+        <v>9530965900</v>
       </c>
       <c r="F30">
-        <v>14295102000</v>
+        <v>13960536900</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1878,13 +1878,13 @@
         <v>1402300</v>
       </c>
       <c r="I30">
-        <v>25680112000</v>
+        <v>23491502800</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-09T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1309333215000</v>
+        <v>1174039743900</v>
       </c>
       <c r="L30">
         <v>78539900</v>
@@ -1893,13 +1893,13 @@
         <v>-130100</v>
       </c>
       <c r="N30">
-        <v>2910092000</v>
+        <v>4429571000</v>
       </c>
       <c r="O30">
         <v>8091100</v>
       </c>
       <c r="P30">
-        <v>167325207000</v>
+        <v>105992401200</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>6700</v>
       </c>
       <c r="E31">
-        <v>32458169000</v>
+        <v>28947383300</v>
       </c>
       <c r="F31">
-        <v>16492077000</v>
+        <v>16290978300</v>
       </c>
       <c r="G31">
         <v>174713000</v>
@@ -1928,13 +1928,13 @@
         <v>2381000</v>
       </c>
       <c r="I31">
-        <v>49124959000</v>
+        <v>45413074600</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-09T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1358458174000</v>
+        <v>1219452818500</v>
       </c>
       <c r="L31">
         <v>80920900</v>
@@ -1943,13 +1943,13 @@
         <v>-742700</v>
       </c>
       <c r="N31">
-        <v>-15966092000</v>
+        <v>-12656405000</v>
       </c>
       <c r="O31">
         <v>7348400</v>
       </c>
       <c r="P31">
-        <v>151359115000</v>
+        <v>93335996200</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>2700</v>
       </c>
       <c r="E32">
-        <v>25542742000</v>
+        <v>22965022300</v>
       </c>
       <c r="F32">
-        <v>12240273000</v>
+        <v>12081432000</v>
       </c>
       <c r="G32">
         <v>18561000</v>
@@ -1978,13 +1978,13 @@
         <v>1993800</v>
       </c>
       <c r="I32">
-        <v>37801576000</v>
+        <v>35065015300</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-09T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1396259750000</v>
+        <v>1254517833800</v>
       </c>
       <c r="L32">
         <v>82914700</v>
@@ -1993,13 +1993,13 @@
         <v>-719500</v>
       </c>
       <c r="N32">
-        <v>-13302469000</v>
+        <v>-10883590300</v>
       </c>
       <c r="O32">
         <v>6628900</v>
       </c>
       <c r="P32">
-        <v>138056646000</v>
+        <v>82452405900</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>1000</v>
       </c>
       <c r="E33">
-        <v>9584262000</v>
+        <v>8829817200</v>
       </c>
       <c r="F33">
-        <v>13577877000</v>
+        <v>12981773700</v>
       </c>
       <c r="G33">
         <v>25200000</v>
@@ -2028,13 +2028,13 @@
         <v>1228600</v>
       </c>
       <c r="I33">
-        <v>23187339000</v>
+        <v>21836790900</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-09T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1419447089000</v>
+        <v>1276354624700</v>
       </c>
       <c r="L33">
         <v>84143300</v>
@@ -2043,13 +2043,13 @@
         <v>87200</v>
       </c>
       <c r="N33">
-        <v>3993615000</v>
+        <v>4151956500</v>
       </c>
       <c r="O33">
         <v>6716100</v>
       </c>
       <c r="P33">
-        <v>142050261000</v>
+        <v>86604362400</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>1700</v>
       </c>
       <c r="E34">
-        <v>17166435000</v>
+        <v>14026078500</v>
       </c>
       <c r="F34">
-        <v>12932276000</v>
+        <v>12187921100</v>
       </c>
       <c r="G34">
         <v>25105000</v>
@@ -2078,13 +2078,13 @@
         <v>1903200</v>
       </c>
       <c r="I34">
-        <v>30123816000</v>
+        <v>26239104600</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-09T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1449570905000</v>
+        <v>1302593729300</v>
       </c>
       <c r="L34">
         <v>86046500</v>
@@ -2093,13 +2093,13 @@
         <v>-31500</v>
       </c>
       <c r="N34">
-        <v>-4234159000</v>
+        <v>-1838157400</v>
       </c>
       <c r="O34">
         <v>6684600</v>
       </c>
       <c r="P34">
-        <v>137816102000</v>
+        <v>84766205000</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>1000</v>
       </c>
       <c r="E35">
-        <v>12213242000</v>
+        <v>11255300900</v>
       </c>
       <c r="F35">
-        <v>12394217000</v>
+        <v>12167044400</v>
       </c>
       <c r="G35">
         <v>34957000</v>
@@ -2128,13 +2128,13 @@
         <v>1531100</v>
       </c>
       <c r="I35">
-        <v>24642416000</v>
+        <v>23457302300</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-09T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1474213321000</v>
+        <v>1326051031600</v>
       </c>
       <c r="L35">
         <v>87577600</v>
@@ -2143,13 +2143,13 @@
         <v>75700</v>
       </c>
       <c r="N35">
-        <v>180975000</v>
+        <v>911743500</v>
       </c>
       <c r="O35">
         <v>6760300</v>
       </c>
       <c r="P35">
-        <v>137997077000</v>
+        <v>85677948500</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>6500</v>
       </c>
       <c r="E36">
-        <v>7781269000</v>
+        <v>6561090400</v>
       </c>
       <c r="F36">
-        <v>14996444000</v>
+        <v>14412128900</v>
       </c>
       <c r="G36">
         <v>92709000</v>
@@ -2178,13 +2178,13 @@
         <v>1410000</v>
       </c>
       <c r="I36">
-        <v>22870422000</v>
+        <v>21065928300</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-09T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1497083743000</v>
+        <v>1347116959900</v>
       </c>
       <c r="L36">
         <v>88987600</v>
@@ -2193,13 +2193,13 @@
         <v>421700</v>
       </c>
       <c r="N36">
-        <v>7215175000</v>
+        <v>7851038500</v>
       </c>
       <c r="O36">
         <v>7182000</v>
       </c>
       <c r="P36">
-        <v>145212252000</v>
+        <v>93528987000</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>5200</v>
       </c>
       <c r="E37">
-        <v>8915929000</v>
+        <v>8533911400</v>
       </c>
       <c r="F37">
-        <v>12036425000</v>
+        <v>11537624300</v>
       </c>
       <c r="G37">
         <v>52310000</v>
@@ -2228,13 +2228,13 @@
         <v>1395200</v>
       </c>
       <c r="I37">
-        <v>21004664000</v>
+        <v>20123845700</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-09T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1518088407000</v>
+        <v>1367240805600</v>
       </c>
       <c r="L37">
         <v>90382800</v>
@@ -2243,13 +2243,13 @@
         <v>278800</v>
       </c>
       <c r="N37">
-        <v>3120496000</v>
+        <v>3003712900</v>
       </c>
       <c r="O37">
         <v>7460800</v>
       </c>
       <c r="P37">
-        <v>148332748000</v>
+        <v>96532699900</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>1600</v>
       </c>
       <c r="E38">
-        <v>16261266000</v>
+        <v>14284544700</v>
       </c>
       <c r="F38">
-        <v>12929611000</v>
+        <v>10860082600</v>
       </c>
       <c r="G38">
-        <v>49035000</v>
+        <v>8575500</v>
       </c>
       <c r="H38">
         <v>1500200</v>
       </c>
       <c r="I38">
-        <v>29239912000</v>
+        <v>25153202800</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-09T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1547328319000</v>
+        <v>1392394008400</v>
       </c>
       <c r="L38">
         <v>91883000</v>
@@ -2293,13 +2293,13 @@
         <v>-196000</v>
       </c>
       <c r="N38">
-        <v>-3331655000</v>
+        <v>-3424462100</v>
       </c>
       <c r="O38">
         <v>7264800</v>
       </c>
       <c r="P38">
-        <v>145001093000</v>
+        <v>93108237800</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>100</v>
       </c>
       <c r="E39">
-        <v>10393923000</v>
+        <v>9566551200</v>
       </c>
       <c r="F39">
-        <v>16200464000</v>
+        <v>14066999600</v>
       </c>
       <c r="G39">
         <v>4415000</v>
@@ -2328,13 +2328,13 @@
         <v>1405500</v>
       </c>
       <c r="I39">
-        <v>26598802000</v>
+        <v>23637965800</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-09T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1573927121000</v>
+        <v>1416031974200</v>
       </c>
       <c r="L39">
         <v>93288500</v>
@@ -2343,13 +2343,13 @@
         <v>243400</v>
       </c>
       <c r="N39">
-        <v>5806541000</v>
+        <v>4500448400</v>
       </c>
       <c r="O39">
         <v>7508200</v>
       </c>
       <c r="P39">
-        <v>150807634000</v>
+        <v>97608686200</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>13600</v>
       </c>
       <c r="E40">
-        <v>14444870000</v>
+        <v>10212706400</v>
       </c>
       <c r="F40">
-        <v>19379490000</v>
+        <v>16229243400</v>
       </c>
       <c r="G40">
         <v>431685000</v>
@@ -2378,13 +2378,13 @@
         <v>2007500</v>
       </c>
       <c r="I40">
-        <v>34256045000</v>
+        <v>26873634800</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-09T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1608183166000</v>
+        <v>1442905609000</v>
       </c>
       <c r="L40">
         <v>95296000</v>
@@ -2393,13 +2393,13 @@
         <v>328900</v>
       </c>
       <c r="N40">
-        <v>4934620000</v>
+        <v>6016537000</v>
       </c>
       <c r="O40">
         <v>7837100</v>
       </c>
       <c r="P40">
-        <v>155742254000</v>
+        <v>103625223200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>11300</v>
       </c>
       <c r="E41">
-        <v>12003569000</v>
+        <v>10010364200</v>
       </c>
       <c r="F41">
-        <v>37266851000</v>
+        <v>34361159600</v>
       </c>
       <c r="G41">
         <v>44922000</v>
@@ -2428,13 +2428,13 @@
         <v>2683000</v>
       </c>
       <c r="I41">
-        <v>49315342000</v>
+        <v>44416445800</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-09T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1657498508000</v>
+        <v>1487322054800</v>
       </c>
       <c r="L41">
         <v>97979000</v>
@@ -2443,13 +2443,13 @@
         <v>1031300</v>
       </c>
       <c r="N41">
-        <v>25263282000</v>
+        <v>24350795400</v>
       </c>
       <c r="O41">
         <v>8868400</v>
       </c>
       <c r="P41">
-        <v>181005536000</v>
+        <v>127976018600</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>7100</v>
       </c>
       <c r="E42">
-        <v>10890170000</v>
+        <v>10132428500</v>
       </c>
       <c r="F42">
-        <v>50527787000</v>
+        <v>48785630900</v>
       </c>
       <c r="G42">
         <v>303589000</v>
@@ -2478,13 +2478,13 @@
         <v>3275700</v>
       </c>
       <c r="I42">
-        <v>61721546000</v>
+        <v>59221648400</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-09T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1719220054000</v>
+        <v>1546543703200</v>
       </c>
       <c r="L42">
         <v>101254700</v>
@@ -2493,13 +2493,13 @@
         <v>2117600</v>
       </c>
       <c r="N42">
-        <v>39637617000</v>
+        <v>38653202400</v>
       </c>
       <c r="O42">
         <v>10986000</v>
       </c>
       <c r="P42">
-        <v>220643153000</v>
+        <v>166629221000</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>8940003000</v>
+        <v>8407336200</v>
       </c>
       <c r="F43">
-        <v>51112106000</v>
+        <v>49138481600</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2528,13 +2528,13 @@
         <v>3314300</v>
       </c>
       <c r="I43">
-        <v>60052109000</v>
+        <v>57545817800</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-09T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1779272163000</v>
+        <v>1604089521000</v>
       </c>
       <c r="L43">
         <v>104569000</v>
@@ -2543,13 +2543,13 @@
         <v>2288900</v>
       </c>
       <c r="N43">
-        <v>42172103000</v>
+        <v>40731145400</v>
       </c>
       <c r="O43">
         <v>13274900</v>
       </c>
       <c r="P43">
-        <v>262815256000</v>
+        <v>207360366400</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>5600</v>
       </c>
       <c r="E44">
-        <v>11782443000</v>
+        <v>11025700500</v>
       </c>
       <c r="F44">
-        <v>39471697000</v>
+        <v>36519951700</v>
       </c>
       <c r="G44">
         <v>81758000</v>
@@ -2578,13 +2578,13 @@
         <v>2759900</v>
       </c>
       <c r="I44">
-        <v>51335898000</v>
+        <v>47627410200</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-09T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1830608061000</v>
+        <v>1651716931200</v>
       </c>
       <c r="L44">
         <v>107328900</v>
@@ -2593,13 +2593,13 @@
         <v>1470700</v>
       </c>
       <c r="N44">
-        <v>27689254000</v>
+        <v>25494251200</v>
       </c>
       <c r="O44">
         <v>14745600</v>
       </c>
       <c r="P44">
-        <v>290504510000</v>
+        <v>232854617600</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>17000</v>
       </c>
       <c r="E45">
-        <v>21033999000</v>
+        <v>20465168400</v>
       </c>
       <c r="F45">
-        <v>33302451000</v>
+        <v>32672181900</v>
       </c>
       <c r="G45">
         <v>227110000</v>
@@ -2628,13 +2628,13 @@
         <v>2614700</v>
       </c>
       <c r="I45">
-        <v>54563560000</v>
+        <v>53364460300</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-09T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1885171621000</v>
+        <v>1705081391500</v>
       </c>
       <c r="L45">
         <v>109943600</v>
@@ -2643,13 +2643,13 @@
         <v>361100</v>
       </c>
       <c r="N45">
-        <v>12268452000</v>
+        <v>12207013500</v>
       </c>
       <c r="O45">
         <v>15106700</v>
       </c>
       <c r="P45">
-        <v>302772962000</v>
+        <v>245061631100</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>9500</v>
       </c>
       <c r="E46">
-        <v>44434408000</v>
+        <v>40055191600</v>
       </c>
       <c r="F46">
-        <v>31299676000</v>
+        <v>30113063800</v>
       </c>
       <c r="G46">
-        <v>433961000</v>
+        <v>75919400</v>
       </c>
       <c r="H46">
         <v>3504700</v>
       </c>
       <c r="I46">
-        <v>76168045000</v>
+        <v>70244174800</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-09T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1961339666000</v>
+        <v>1775325566300</v>
       </c>
       <c r="L46">
         <v>113448300</v>
@@ -2693,13 +2693,13 @@
         <v>-281600</v>
       </c>
       <c r="N46">
-        <v>-13134732000</v>
+        <v>-9942127800</v>
       </c>
       <c r="O46">
         <v>14825100</v>
       </c>
       <c r="P46">
-        <v>289638230000</v>
+        <v>235119503300</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>61900</v>
       </c>
       <c r="E47">
-        <v>23575948000</v>
+        <v>22924799800</v>
       </c>
       <c r="F47">
-        <v>49032818000</v>
+        <v>47908343600</v>
       </c>
       <c r="G47">
-        <v>1600220000</v>
+        <v>1319700800</v>
       </c>
       <c r="H47">
         <v>3458400</v>
       </c>
       <c r="I47">
-        <v>74208986000</v>
+        <v>72152844200</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-09T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2035548652000</v>
+        <v>1847478410500</v>
       </c>
       <c r="L47">
         <v>116906700</v>
@@ -2743,13 +2743,13 @@
         <v>800300</v>
       </c>
       <c r="N47">
-        <v>25456870000</v>
+        <v>24983543800</v>
       </c>
       <c r="O47">
         <v>15625400</v>
       </c>
       <c r="P47">
-        <v>315095100000</v>
+        <v>260103047100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>200</v>
       </c>
       <c r="E48">
-        <v>40699804000</v>
+        <v>38255650600</v>
       </c>
       <c r="F48">
-        <v>86764998000</v>
+        <v>85751013000</v>
       </c>
       <c r="G48">
         <v>6233000</v>
@@ -2778,13 +2778,13 @@
         <v>5672100</v>
       </c>
       <c r="I48">
-        <v>127471035000</v>
+        <v>124012896600</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-09T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2163019687000</v>
+        <v>1971491307100</v>
       </c>
       <c r="L48">
         <v>122578800</v>
@@ -2793,13 +2793,13 @@
         <v>2021700</v>
       </c>
       <c r="N48">
-        <v>46065194000</v>
+        <v>47495362400</v>
       </c>
       <c r="O48">
         <v>17647100</v>
       </c>
       <c r="P48">
-        <v>361160294000</v>
+        <v>307598409500</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>100</v>
       </c>
       <c r="E49">
-        <v>28739707000</v>
+        <v>27375772300</v>
       </c>
       <c r="F49">
-        <v>18479558000</v>
+        <v>16867072100</v>
       </c>
       <c r="G49">
         <v>1764999.9999999998</v>
@@ -2828,13 +2828,13 @@
         <v>2749600</v>
       </c>
       <c r="I49">
-        <v>47221030000</v>
+        <v>44244609400</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-09T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2210240717000</v>
+        <v>2015735916500</v>
       </c>
       <c r="L49">
         <v>125328400</v>
@@ -2843,13 +2843,13 @@
         <v>-325700</v>
       </c>
       <c r="N49">
-        <v>-10260149000</v>
+        <v>-10508700200</v>
       </c>
       <c r="O49">
         <v>17321400</v>
       </c>
       <c r="P49">
-        <v>350900145000</v>
+        <v>297089709300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>10200</v>
       </c>
       <c r="E50">
-        <v>68531658000</v>
+        <v>47256754200</v>
       </c>
       <c r="F50">
-        <v>18329180000</v>
+        <v>14527585400</v>
       </c>
       <c r="G50">
-        <v>481990000</v>
+        <v>61810600</v>
       </c>
       <c r="H50">
         <v>3985900</v>
       </c>
       <c r="I50">
-        <v>87342828000</v>
+        <v>61846150200</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-09T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2297583545000</v>
+        <v>2077582066700</v>
       </c>
       <c r="L50">
         <v>129314300</v>
@@ -2893,13 +2893,13 @@
         <v>-2024100</v>
       </c>
       <c r="N50">
-        <v>-50202478000</v>
+        <v>-32729168800</v>
       </c>
       <c r="O50">
         <v>15297300</v>
       </c>
       <c r="P50">
-        <v>300697667000</v>
+        <v>264360540500</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>13800</v>
       </c>
       <c r="E51">
-        <v>34847538000</v>
+        <v>29933157300</v>
       </c>
       <c r="F51">
-        <v>23690366000</v>
+        <v>17260802000</v>
       </c>
       <c r="G51">
         <v>232144000</v>
@@ -2928,13 +2928,13 @@
         <v>2888300</v>
       </c>
       <c r="I51">
-        <v>58770048000</v>
+        <v>47426103300</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-09T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2356353593000</v>
+        <v>2125008170000</v>
       </c>
       <c r="L51">
         <v>132202600</v>
@@ -2943,13 +2943,13 @@
         <v>-771900</v>
       </c>
       <c r="N51">
-        <v>-11157172000</v>
+        <v>-12672355300</v>
       </c>
       <c r="O51">
         <v>14525400</v>
       </c>
       <c r="P51">
-        <v>289540495000</v>
+        <v>251688185200</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>9300</v>
       </c>
       <c r="E52">
-        <v>22185868000</v>
+        <v>16378481200</v>
       </c>
       <c r="F52">
-        <v>26888270000</v>
+        <v>21267196700</v>
       </c>
       <c r="G52">
         <v>110925000</v>
@@ -2978,13 +2978,13 @@
         <v>2648000</v>
       </c>
       <c r="I52">
-        <v>49185063000</v>
+        <v>37756602900</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-09T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2405538656000</v>
+        <v>2162764772900</v>
       </c>
       <c r="L52">
         <v>134850600</v>
@@ -2993,13 +2993,13 @@
         <v>-6100</v>
       </c>
       <c r="N52">
-        <v>4702402000</v>
+        <v>4888715500</v>
       </c>
       <c r="O52">
         <v>14519300</v>
       </c>
       <c r="P52">
-        <v>294242897000</v>
+        <v>256576900700</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>23400</v>
       </c>
       <c r="E53">
-        <v>15531745000</v>
+        <v>14593983700</v>
       </c>
       <c r="F53">
-        <v>34321000000</v>
+        <v>27009618700</v>
       </c>
       <c r="G53">
         <v>551930000</v>
@@ -3028,13 +3028,13 @@
         <v>2696000</v>
       </c>
       <c r="I53">
-        <v>50404675000</v>
+        <v>42155532400</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-09T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2455943331000</v>
+        <v>2204920305300</v>
       </c>
       <c r="L53">
         <v>137546600</v>
@@ -3043,13 +3043,13 @@
         <v>1054400</v>
       </c>
       <c r="N53">
-        <v>18789255000</v>
+        <v>12415635000</v>
       </c>
       <c r="O53">
         <v>15573700</v>
       </c>
       <c r="P53">
-        <v>313032152000</v>
+        <v>268992535700</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>11900</v>
       </c>
       <c r="E54">
-        <v>26669776000</v>
+        <v>21578872000</v>
       </c>
       <c r="F54">
-        <v>32964172000</v>
+        <v>32123913100</v>
       </c>
       <c r="G54">
         <v>104162000</v>
@@ -3078,13 +3078,13 @@
         <v>3253200</v>
       </c>
       <c r="I54">
-        <v>59738110000</v>
+        <v>53806947100</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-09T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2515681441000</v>
+        <v>2258727252400</v>
       </c>
       <c r="L54">
         <v>140799800</v>
@@ -3093,13 +3093,13 @@
         <v>606100</v>
       </c>
       <c r="N54">
-        <v>6294396000</v>
+        <v>10545041100</v>
       </c>
       <c r="O54">
         <v>16179800</v>
       </c>
       <c r="P54">
-        <v>319326548000</v>
+        <v>279537576800</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>15500</v>
       </c>
       <c r="E55">
-        <v>15917522000</v>
+        <v>14493747200</v>
       </c>
       <c r="F55">
-        <v>30420828000</v>
+        <v>28788661800</v>
       </c>
       <c r="G55">
         <v>370740000</v>
@@ -3128,13 +3128,13 @@
         <v>2276700</v>
       </c>
       <c r="I55">
-        <v>46709090000</v>
+        <v>43653149000</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-09T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2562390531000</v>
+        <v>2302380401400</v>
       </c>
       <c r="L55">
         <v>143076500</v>
@@ -3143,13 +3143,13 @@
         <v>565800</v>
       </c>
       <c r="N55">
-        <v>14503306000</v>
+        <v>14294914600</v>
       </c>
       <c r="O55">
         <v>16745600</v>
       </c>
       <c r="P55">
-        <v>333829854000</v>
+        <v>293832491400</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>1000</v>
       </c>
       <c r="E56">
-        <v>14655630000</v>
+        <v>13110376800</v>
       </c>
       <c r="F56">
-        <v>21658121000</v>
+        <v>20895284600</v>
       </c>
       <c r="G56">
         <v>15700000</v>
@@ -3178,13 +3178,13 @@
         <v>1963800</v>
       </c>
       <c r="I56">
-        <v>36329451000</v>
+        <v>34021361400</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-09T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2598719982000</v>
+        <v>2336401762800</v>
       </c>
       <c r="L56">
         <v>145040300</v>
@@ -3193,13 +3193,13 @@
         <v>423800</v>
       </c>
       <c r="N56">
-        <v>7002491000</v>
+        <v>7784907800</v>
       </c>
       <c r="O56">
         <v>17169400</v>
       </c>
       <c r="P56">
-        <v>340832345000</v>
+        <v>301617399200</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>4300</v>
       </c>
       <c r="E57">
-        <v>16050347000</v>
+        <v>14822775800</v>
       </c>
       <c r="F57">
-        <v>15242455000</v>
+        <v>14113784800</v>
       </c>
       <c r="G57">
         <v>114840000</v>
@@ -3228,13 +3228,13 @@
         <v>1678600</v>
       </c>
       <c r="I57">
-        <v>31407642000</v>
+        <v>29051400600</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-09T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2630127624000</v>
+        <v>2365453163400</v>
       </c>
       <c r="L57">
         <v>146718900</v>
@@ -3243,13 +3243,13 @@
         <v>-3900</v>
       </c>
       <c r="N57">
-        <v>-807892000</v>
+        <v>-708991000</v>
       </c>
       <c r="O57">
         <v>17165500</v>
       </c>
       <c r="P57">
-        <v>340024453000</v>
+        <v>300908408200</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>2400</v>
       </c>
       <c r="E58">
-        <v>18977459000</v>
+        <v>17670667100</v>
       </c>
       <c r="F58">
-        <v>16505490000</v>
+        <v>15594901500</v>
       </c>
       <c r="G58">
         <v>165910000</v>
@@ -3278,13 +3278,13 @@
         <v>1902600</v>
       </c>
       <c r="I58">
-        <v>35648859000</v>
+        <v>33431478600</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-09T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2665776483000</v>
+        <v>2398884642000</v>
       </c>
       <c r="L58">
         <v>148621500</v>
@@ -3293,13 +3293,13 @@
         <v>68600</v>
       </c>
       <c r="N58">
-        <v>-2471969000</v>
+        <v>-2075765600</v>
       </c>
       <c r="O58">
         <v>17234100</v>
       </c>
       <c r="P58">
-        <v>337552484000</v>
+        <v>298832642600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>500</v>
       </c>
       <c r="E59">
-        <v>20518048000</v>
+        <v>16305864400</v>
       </c>
       <c r="F59">
-        <v>14756104000</v>
+        <v>9536628700</v>
       </c>
       <c r="G59">
-        <v>14435000</v>
+        <v>4445000</v>
       </c>
       <c r="H59">
         <v>1906600</v>
       </c>
       <c r="I59">
-        <v>35288587000</v>
+        <v>25846938100</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-09T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2701065070000</v>
+        <v>2424731580100</v>
       </c>
       <c r="L59">
         <v>150528100</v>
@@ -3343,13 +3343,13 @@
         <v>-365500</v>
       </c>
       <c r="N59">
-        <v>-5761944000</v>
+        <v>-6769235700</v>
       </c>
       <c r="O59">
         <v>16868600</v>
       </c>
       <c r="P59">
-        <v>331790540000</v>
+        <v>292063406900</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>18714704000</v>
+        <v>15536085800</v>
       </c>
       <c r="F60">
-        <v>11193244000</v>
+        <v>8937502000</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>1700500</v>
       </c>
       <c r="I60">
-        <v>29907948000</v>
+        <v>24473587800</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-09T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2730973018000</v>
+        <v>2449205167900</v>
       </c>
       <c r="L60">
         <v>152228600</v>
@@ -3393,13 +3393,13 @@
         <v>-445700</v>
       </c>
       <c r="N60">
-        <v>-7521460000</v>
+        <v>-6598583800</v>
       </c>
       <c r="O60">
         <v>16422900</v>
       </c>
       <c r="P60">
-        <v>324269080000</v>
+        <v>285464823100</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>600</v>
       </c>
       <c r="E61">
-        <v>24471979000</v>
+        <v>22912839700</v>
       </c>
       <c r="F61">
-        <v>10091928000</v>
+        <v>9439980600</v>
       </c>
       <c r="G61">
         <v>2805000</v>
@@ -3428,13 +3428,13 @@
         <v>1894000</v>
       </c>
       <c r="I61">
-        <v>34566712000</v>
+        <v>32355625300</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-09T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2765539730000</v>
+        <v>2481560793200</v>
       </c>
       <c r="L61">
         <v>154122600</v>
@@ -3443,13 +3443,13 @@
         <v>-835800</v>
       </c>
       <c r="N61">
-        <v>-14380051000</v>
+        <v>-13472859100</v>
       </c>
       <c r="O61">
         <v>15587100</v>
       </c>
       <c r="P61">
-        <v>309889029000</v>
+        <v>271991964000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>200</v>
       </c>
       <c r="E62">
-        <v>28382075000</v>
+        <v>27356701400</v>
       </c>
       <c r="F62">
-        <v>7860731000</v>
+        <v>7445147000</v>
       </c>
       <c r="G62">
         <v>6570000</v>
@@ -3478,13 +3478,13 @@
         <v>1892700</v>
       </c>
       <c r="I62">
-        <v>36249376000</v>
+        <v>34808418400</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-09T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2801789106000</v>
+        <v>2516369211600</v>
       </c>
       <c r="L62">
         <v>156015300</v>
@@ -3493,13 +3493,13 @@
         <v>-1160300</v>
       </c>
       <c r="N62">
-        <v>-20521344000</v>
+        <v>-19911554400</v>
       </c>
       <c r="O62">
         <v>14426800</v>
       </c>
       <c r="P62">
-        <v>289367685000</v>
+        <v>252080409600</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>24622244000</v>
+        <v>21938330600</v>
       </c>
       <c r="F63">
-        <v>13681884000</v>
+        <v>13184781600</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3528,13 +3528,13 @@
         <v>2007400</v>
       </c>
       <c r="I63">
-        <v>38304128000</v>
+        <v>35123112200</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-09T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2840093234000</v>
+        <v>2551492323800</v>
       </c>
       <c r="L63">
         <v>158022700</v>
@@ -3543,13 +3543,13 @@
         <v>-656600</v>
       </c>
       <c r="N63">
-        <v>-10940360000</v>
+        <v>-8753549000</v>
       </c>
       <c r="O63">
         <v>13770200</v>
       </c>
       <c r="P63">
-        <v>278427325000</v>
+        <v>243326860600</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>4300</v>
       </c>
       <c r="E64">
-        <v>43767671000</v>
+        <v>34858189400</v>
       </c>
       <c r="F64">
-        <v>9084990000</v>
+        <v>7624252200</v>
       </c>
       <c r="G64">
         <v>93995000</v>
@@ -3578,13 +3578,13 @@
         <v>3150800</v>
       </c>
       <c r="I64">
-        <v>52946656000</v>
+        <v>42576436600</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-09T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2893039890000</v>
+        <v>2594068760400</v>
       </c>
       <c r="L64">
         <v>161173500</v>
@@ -3593,13 +3593,13 @@
         <v>-2172700</v>
       </c>
       <c r="N64">
-        <v>-34682681000</v>
+        <v>-27233937200</v>
       </c>
       <c r="O64">
         <v>11597500</v>
       </c>
       <c r="P64">
-        <v>243744644000</v>
+        <v>216092923400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>13300</v>
       </c>
       <c r="E65">
-        <v>31172342000</v>
+        <v>28496520500</v>
       </c>
       <c r="F65">
-        <v>12293789000</v>
+        <v>11227056800</v>
       </c>
       <c r="G65">
         <v>164857000</v>
@@ -3628,13 +3628,13 @@
         <v>2457200</v>
       </c>
       <c r="I65">
-        <v>43630988000</v>
+        <v>39888434300</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-09T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2936670878000</v>
+        <v>2633957194700</v>
       </c>
       <c r="L65">
         <v>163630700</v>
@@ -3643,13 +3643,13 @@
         <v>-1057500</v>
       </c>
       <c r="N65">
-        <v>-18878553000</v>
+        <v>-17269463700</v>
       </c>
       <c r="O65">
         <v>10540000</v>
       </c>
       <c r="P65">
-        <v>224866091000</v>
+        <v>198823459700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>4500</v>
       </c>
       <c r="E66">
-        <v>46730082000</v>
+        <v>44364050400</v>
       </c>
       <c r="F66">
-        <v>11011747000</v>
+        <v>10254305200</v>
       </c>
       <c r="G66">
         <v>43853000</v>
@@ -3678,13 +3678,13 @@
         <v>2696100</v>
       </c>
       <c r="I66">
-        <v>57785682000</v>
+        <v>54662208600</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-09T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2994456560000</v>
+        <v>2688619403300</v>
       </c>
       <c r="L66">
         <v>166326800</v>
@@ -3693,13 +3693,13 @@
         <v>-1797400</v>
       </c>
       <c r="N66">
-        <v>-35718335000</v>
+        <v>-34109745200</v>
       </c>
       <c r="O66">
         <v>8742600</v>
       </c>
       <c r="P66">
-        <v>189147756000</v>
+        <v>164713714500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>13200</v>
       </c>
       <c r="E67">
-        <v>29640877000</v>
+        <v>27534485500</v>
       </c>
       <c r="F67">
-        <v>13544257000</v>
+        <v>13069831900</v>
       </c>
       <c r="G67">
         <v>217706000</v>
@@ -3728,13 +3728,13 @@
         <v>2467400</v>
       </c>
       <c r="I67">
-        <v>43402840000</v>
+        <v>40822023400</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-09T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3037859400000</v>
+        <v>2729441426700</v>
       </c>
       <c r="L67">
         <v>168794200</v>
@@ -3743,13 +3743,13 @@
         <v>-1189400</v>
       </c>
       <c r="N67">
-        <v>-16096620000</v>
+        <v>-14464653600</v>
       </c>
       <c r="O67">
         <v>7553200</v>
       </c>
       <c r="P67">
-        <v>173051136000</v>
+        <v>150249060900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>200</v>
       </c>
       <c r="E68">
-        <v>21211792000</v>
+        <v>18210895900</v>
       </c>
       <c r="F68">
-        <v>14070174000</v>
+        <v>13049395800</v>
       </c>
       <c r="G68">
         <v>2620000</v>
@@ -3778,13 +3778,13 @@
         <v>1666400</v>
       </c>
       <c r="I68">
-        <v>35284586000</v>
+        <v>31262911700</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-09T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3073143986000</v>
+        <v>2760704338400</v>
       </c>
       <c r="L68">
         <v>170460600</v>
@@ -3793,13 +3793,13 @@
         <v>-607000</v>
       </c>
       <c r="N68">
-        <v>-7141618000</v>
+        <v>-5161500100</v>
       </c>
       <c r="O68">
         <v>6946200</v>
       </c>
       <c r="P68">
-        <v>165909518000</v>
+        <v>145087560800</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>9100</v>
       </c>
       <c r="E69">
-        <v>19209705000</v>
+        <v>18040875000</v>
       </c>
       <c r="F69">
-        <v>15646703000</v>
+        <v>14532618200</v>
       </c>
       <c r="G69">
         <v>290180000</v>
@@ -3828,13 +3828,13 @@
         <v>1792300</v>
       </c>
       <c r="I69">
-        <v>35146588000</v>
+        <v>32863673200</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-09T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3108290574000</v>
+        <v>2793568011600</v>
       </c>
       <c r="L69">
         <v>172252900</v>
@@ -3843,13 +3843,13 @@
         <v>-345200</v>
       </c>
       <c r="N69">
-        <v>-3563002000</v>
+        <v>-3508256800</v>
       </c>
       <c r="O69">
         <v>6601000</v>
       </c>
       <c r="P69">
-        <v>162346516000</v>
+        <v>141579304000</v>
       </c>
     </row>
     <row r="70">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>121763000</v>
+        <v>118965800</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>23600</v>
       </c>
       <c r="I70">
-        <v>121763000</v>
+        <v>118965800</v>
       </c>
       <c r="J70" t="str">
         <v>2023-02-09T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3108412337000</v>
+        <v>2793686977400</v>
       </c>
       <c r="L70">
         <v>172276500</v>
@@ -3893,13 +3893,13 @@
         <v>-23600</v>
       </c>
       <c r="N70">
-        <v>-121763000</v>
+        <v>-118965800</v>
       </c>
       <c r="O70">
         <v>6577400</v>
       </c>
       <c r="P70">
-        <v>162224753000</v>
+        <v>141460338200</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>123400</v>
       </c>
       <c r="E71">
-        <v>73594900000</v>
+        <v>69747950800</v>
       </c>
       <c r="F71">
-        <v>40820148000</v>
+        <v>34797976200</v>
       </c>
       <c r="G71">
-        <v>1775408000</v>
+        <v>1610273300</v>
       </c>
       <c r="H71">
         <v>6627500</v>
       </c>
       <c r="I71">
-        <v>116190456000</v>
+        <v>106156200300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-09T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3224602793000</v>
+        <v>2899843177700</v>
       </c>
       <c r="L71">
         <v>178904000</v>
@@ -3943,13 +3943,13 @@
         <v>-1951300</v>
       </c>
       <c r="N71">
-        <v>-32774752000</v>
+        <v>-34949974600</v>
       </c>
       <c r="O71">
         <v>4626100</v>
       </c>
       <c r="P71">
-        <v>129450001000</v>
+        <v>106510363600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>1400</v>
       </c>
       <c r="E72">
-        <v>27108157000</v>
+        <v>25070296900</v>
       </c>
       <c r="F72">
-        <v>32622881000</v>
+        <v>30491614400</v>
       </c>
       <c r="G72">
         <v>27510000</v>
@@ -3978,13 +3978,13 @@
         <v>2960400</v>
       </c>
       <c r="I72">
-        <v>59758548000</v>
+        <v>55589421300</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-09T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3284361341000</v>
+        <v>2955432599000</v>
       </c>
       <c r="L72">
         <v>181864400</v>
@@ -3993,13 +3993,13 @@
         <v>-109400</v>
       </c>
       <c r="N72">
-        <v>5514724000</v>
+        <v>5421317500</v>
       </c>
       <c r="O72">
         <v>4516700</v>
       </c>
       <c r="P72">
-        <v>134964725000</v>
+        <v>111931681100</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>200</v>
       </c>
       <c r="E73">
-        <v>24225613000</v>
+        <v>23501937400</v>
       </c>
       <c r="F73">
-        <v>24832051000</v>
+        <v>24167516200</v>
       </c>
       <c r="G73">
         <v>2890000</v>
@@ -4028,13 +4028,13 @@
         <v>2792500</v>
       </c>
       <c r="I73">
-        <v>49060554000</v>
+        <v>47672343600</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-09T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3333421895000</v>
+        <v>3003104942600</v>
       </c>
       <c r="L73">
         <v>184656900</v>
@@ -4043,13 +4043,13 @@
         <v>-88700</v>
       </c>
       <c r="N73">
-        <v>606438000</v>
+        <v>665578800</v>
       </c>
       <c r="O73">
         <v>4428000</v>
       </c>
       <c r="P73">
-        <v>135571163000</v>
+        <v>112597259900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>25700</v>
       </c>
       <c r="E74">
-        <v>21062463000</v>
+        <v>20299227000</v>
       </c>
       <c r="F74">
-        <v>17881084000</v>
+        <v>17437028500</v>
       </c>
       <c r="G74">
         <v>253293000</v>
@@ -4078,13 +4078,13 @@
         <v>2333200</v>
       </c>
       <c r="I74">
-        <v>39196840000</v>
+        <v>37989548500</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-09T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3372618735000</v>
+        <v>3041094491100</v>
       </c>
       <c r="L74">
         <v>186990100</v>
@@ -4093,13 +4093,13 @@
         <v>-149700</v>
       </c>
       <c r="N74">
-        <v>-3181379000</v>
+        <v>-2862198500</v>
       </c>
       <c r="O74">
         <v>4278300</v>
       </c>
       <c r="P74">
-        <v>132389784000</v>
+        <v>109735061400</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>5100</v>
       </c>
       <c r="E75">
-        <v>22193104000</v>
+        <v>21486211600</v>
       </c>
       <c r="F75">
-        <v>25026945000</v>
+        <v>24207265500</v>
       </c>
       <c r="G75">
         <v>114415000</v>
@@ -4128,13 +4128,13 @@
         <v>2689300</v>
       </c>
       <c r="I75">
-        <v>47334464000</v>
+        <v>45807892100</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-09T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3419953199000</v>
+        <v>3086902383200</v>
       </c>
       <c r="L75">
         <v>189679400</v>
@@ -4143,13 +4143,13 @@
         <v>332600</v>
       </c>
       <c r="N75">
-        <v>2833841000</v>
+        <v>2721053900</v>
       </c>
       <c r="O75">
         <v>4610900</v>
       </c>
       <c r="P75">
-        <v>135223625000</v>
+        <v>112456115300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>1200</v>
       </c>
       <c r="E76">
-        <v>26451896000</v>
+        <v>24121928300</v>
       </c>
       <c r="F76">
-        <v>18009613000</v>
+        <v>17402021200</v>
       </c>
       <c r="G76">
         <v>28978000</v>
@@ -4178,13 +4178,13 @@
         <v>2391800</v>
       </c>
       <c r="I76">
-        <v>44490487000</v>
+        <v>41552927500</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-09T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3464443686000</v>
+        <v>3128455310700</v>
       </c>
       <c r="L76">
         <v>192071200</v>
@@ -4193,13 +4193,13 @@
         <v>-544000</v>
       </c>
       <c r="N76">
-        <v>-8442283000</v>
+        <v>-6719907100</v>
       </c>
       <c r="O76">
         <v>4066900</v>
       </c>
       <c r="P76">
-        <v>126781342000</v>
+        <v>105736208200</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>32800</v>
       </c>
       <c r="E77">
-        <v>24291010000</v>
+        <v>19989415900</v>
       </c>
       <c r="F77">
-        <v>18327588000</v>
+        <v>16638678600</v>
       </c>
       <c r="G77">
         <v>482452000</v>
@@ -4228,13 +4228,13 @@
         <v>2234800</v>
       </c>
       <c r="I77">
-        <v>43101050000</v>
+        <v>37110546500</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-09T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3507544736000</v>
+        <v>3165565857200</v>
       </c>
       <c r="L77">
         <v>194306000</v>
@@ -4243,13 +4243,13 @@
         <v>-431200</v>
       </c>
       <c r="N77">
-        <v>-5963422000</v>
+        <v>-3350737300</v>
       </c>
       <c r="O77">
         <v>3635700</v>
       </c>
       <c r="P77">
-        <v>120817920000</v>
+        <v>102385470900</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>3000</v>
       </c>
       <c r="E78">
-        <v>25134674000</v>
+        <v>23224885700</v>
       </c>
       <c r="F78">
-        <v>37333138000</v>
+        <v>34399474600</v>
       </c>
       <c r="G78">
         <v>48807000</v>
@@ -4278,13 +4278,13 @@
         <v>2809400</v>
       </c>
       <c r="I78">
-        <v>62516619000</v>
+        <v>57673167300</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-09T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3570061355000</v>
+        <v>3223239024500</v>
       </c>
       <c r="L78">
         <v>197115400</v>
@@ -4293,13 +4293,13 @@
         <v>433600</v>
       </c>
       <c r="N78">
-        <v>12198464000</v>
+        <v>11174588900</v>
       </c>
       <c r="O78">
         <v>4069300</v>
       </c>
       <c r="P78">
-        <v>133016384000</v>
+        <v>113560059800</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>12500</v>
       </c>
       <c r="E79">
-        <v>17752458000</v>
+        <v>16677633900</v>
       </c>
       <c r="F79">
-        <v>73776890000</v>
+        <v>63730746200</v>
       </c>
       <c r="G79">
         <v>448222000</v>
@@ -4328,13 +4328,13 @@
         <v>4360300</v>
       </c>
       <c r="I79">
-        <v>91977570000</v>
+        <v>80856602100</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-09T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3662038925000</v>
+        <v>3304095626600</v>
       </c>
       <c r="L79">
         <v>201475700</v>
@@ -4343,13 +4343,13 @@
         <v>2731200</v>
       </c>
       <c r="N79">
-        <v>56024432000</v>
+        <v>47053112300</v>
       </c>
       <c r="O79">
         <v>6800500</v>
       </c>
       <c r="P79">
-        <v>189040816000</v>
+        <v>160613172100</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>1100</v>
       </c>
       <c r="E80">
-        <v>17680701000</v>
+        <v>16792989600</v>
       </c>
       <c r="F80">
-        <v>31054787000</v>
+        <v>29861681300</v>
       </c>
       <c r="G80">
         <v>13715000</v>
@@ -4378,13 +4378,13 @@
         <v>2990900</v>
       </c>
       <c r="I80">
-        <v>48749203000</v>
+        <v>46668385900</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-09T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3710788128000</v>
+        <v>3350764012500</v>
       </c>
       <c r="L80">
         <v>204466600</v>
@@ -4393,13 +4393,13 @@
         <v>1378000</v>
       </c>
       <c r="N80">
-        <v>13374086000</v>
+        <v>13068691700</v>
       </c>
       <c r="O80">
         <v>8178500</v>
       </c>
       <c r="P80">
-        <v>202414902000</v>
+        <v>173681863800</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>4900</v>
       </c>
       <c r="E81">
-        <v>19559245000</v>
+        <v>18376029400</v>
       </c>
       <c r="F81">
-        <v>36919685000</v>
+        <v>35557448600</v>
       </c>
       <c r="G81">
         <v>158525000</v>
@@ -4428,13 +4428,13 @@
         <v>2856100</v>
       </c>
       <c r="I81">
-        <v>56637455000</v>
+        <v>54092003000</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-09T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3767425583000</v>
+        <v>3404856015500</v>
       </c>
       <c r="L81">
         <v>207322700</v>
@@ -4443,13 +4443,13 @@
         <v>638200</v>
       </c>
       <c r="N81">
-        <v>17360440000</v>
+        <v>17181419200</v>
       </c>
       <c r="O81">
         <v>8816700</v>
       </c>
       <c r="P81">
-        <v>219775342000</v>
+        <v>190863283000</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>41900</v>
       </c>
       <c r="E82">
-        <v>23377089000</v>
+        <v>23037628800</v>
       </c>
       <c r="F82">
-        <v>54934080000</v>
+        <v>53975339700</v>
       </c>
       <c r="G82">
         <v>947345000</v>
@@ -4478,13 +4478,13 @@
         <v>4276700</v>
       </c>
       <c r="I82">
-        <v>79258514000</v>
+        <v>77960313500</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-09T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3846684097000</v>
+        <v>3482816329000</v>
       </c>
       <c r="L82">
         <v>211599400</v>
@@ -4493,13 +4493,13 @@
         <v>1637600</v>
       </c>
       <c r="N82">
-        <v>31556991000</v>
+        <v>30937710900</v>
       </c>
       <c r="O82">
         <v>10454300</v>
       </c>
       <c r="P82">
-        <v>251332333000</v>
+        <v>221800993900</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>3400</v>
       </c>
       <c r="E83">
-        <v>24629891000</v>
+        <v>23921300300</v>
       </c>
       <c r="F83">
-        <v>37445537000</v>
+        <v>36737445800</v>
       </c>
       <c r="G83">
         <v>89860000</v>
@@ -4528,13 +4528,13 @@
         <v>3318300</v>
       </c>
       <c r="I83">
-        <v>62165288000</v>
+        <v>60748606100</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-09T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3908849385000</v>
+        <v>3543564935100</v>
       </c>
       <c r="L83">
         <v>214917700</v>
@@ -4543,13 +4543,13 @@
         <v>870300</v>
       </c>
       <c r="N83">
-        <v>12815646000</v>
+        <v>12816145500</v>
       </c>
       <c r="O83">
         <v>11324600</v>
       </c>
       <c r="P83">
-        <v>264147979000</v>
+        <v>234617139400</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>800</v>
       </c>
       <c r="E84">
-        <v>40198092000</v>
+        <v>38170321800</v>
       </c>
       <c r="F84">
-        <v>30282008000</v>
+        <v>27069623600</v>
       </c>
       <c r="G84">
         <v>74480000</v>
@@ -4578,13 +4578,13 @@
         <v>3546800</v>
       </c>
       <c r="I84">
-        <v>70554580000</v>
+        <v>65314425400</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-09T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3979403965000</v>
+        <v>3608879360500</v>
       </c>
       <c r="L84">
         <v>218464500</v>
@@ -4593,13 +4593,13 @@
         <v>-282200</v>
       </c>
       <c r="N84">
-        <v>-9916084000</v>
+        <v>-11100698200</v>
       </c>
       <c r="O84">
         <v>11042400</v>
       </c>
       <c r="P84">
-        <v>254231895000</v>
+        <v>223516441200</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>2000</v>
       </c>
       <c r="E85">
-        <v>50768497000</v>
+        <v>40060915300</v>
       </c>
       <c r="F85">
-        <v>24976356000</v>
+        <v>23570962800</v>
       </c>
       <c r="G85">
         <v>20667000</v>
@@ -4628,13 +4628,13 @@
         <v>4179300</v>
       </c>
       <c r="I85">
-        <v>75765520000</v>
+        <v>63652545100</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-09T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4055169485000</v>
+        <v>3672531905600</v>
       </c>
       <c r="L85">
         <v>222643800</v>
@@ -4643,13 +4643,13 @@
         <v>-1303700</v>
       </c>
       <c r="N85">
-        <v>-25792141000</v>
+        <v>-16489952500</v>
       </c>
       <c r="O85">
         <v>9738700</v>
       </c>
       <c r="P85">
-        <v>228439754000</v>
+        <v>207026488700</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>600</v>
       </c>
       <c r="E86">
-        <v>42168773000</v>
+        <v>39051693200</v>
       </c>
       <c r="F86">
-        <v>17659773000</v>
+        <v>14804730900</v>
       </c>
       <c r="G86">
         <v>9069000</v>
@@ -4678,13 +4678,13 @@
         <v>3168000</v>
       </c>
       <c r="I86">
-        <v>59837615000</v>
+        <v>53865493100</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-09T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4115007100000</v>
+        <v>3726397398700</v>
       </c>
       <c r="L86">
         <v>225811800</v>
@@ -4693,13 +4693,13 @@
         <v>-997400</v>
       </c>
       <c r="N86">
-        <v>-24509000000</v>
+        <v>-24246962300</v>
       </c>
       <c r="O86">
         <v>8741300</v>
       </c>
       <c r="P86">
-        <v>203930754000</v>
+        <v>182779526400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>600</v>
       </c>
       <c r="E87">
-        <v>52290709000</v>
+        <v>50616385000</v>
       </c>
       <c r="F87">
-        <v>11277276000</v>
+        <v>10926926700</v>
       </c>
       <c r="G87">
         <v>12174000</v>
@@ -4728,13 +4728,13 @@
         <v>3580700</v>
       </c>
       <c r="I87">
-        <v>63580159000</v>
+        <v>61555485700</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-09T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4178587259000</v>
+        <v>3787952884400</v>
       </c>
       <c r="L87">
         <v>229392500</v>
@@ -4743,13 +4743,13 @@
         <v>-1888500</v>
       </c>
       <c r="N87">
-        <v>-41013433000</v>
+        <v>-39689458300</v>
       </c>
       <c r="O87">
         <v>6852800</v>
       </c>
       <c r="P87">
-        <v>162917321000</v>
+        <v>143090068100</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>6200</v>
       </c>
       <c r="E88">
-        <v>70408662000</v>
+        <v>69950320800</v>
       </c>
       <c r="F88">
-        <v>19518608000</v>
+        <v>18819008300</v>
       </c>
       <c r="G88">
         <v>94963000</v>
@@ -4778,13 +4778,13 @@
         <v>4879800</v>
       </c>
       <c r="I88">
-        <v>90022233000</v>
+        <v>88864292100</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-09T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4268609492000</v>
+        <v>3876817176500</v>
       </c>
       <c r="L88">
         <v>234272300</v>
@@ -4793,13 +4793,13 @@
         <v>-2775000</v>
       </c>
       <c r="N88">
-        <v>-50890054000</v>
+        <v>-51131312500</v>
       </c>
       <c r="O88">
         <v>4077800</v>
       </c>
       <c r="P88">
-        <v>112027267000</v>
+        <v>91958755600</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>18500</v>
       </c>
       <c r="E89">
-        <v>69943454000</v>
+        <v>69402195800</v>
       </c>
       <c r="F89">
-        <v>21801314000</v>
+        <v>21576039500</v>
       </c>
       <c r="G89">
         <v>151112000</v>
@@ -4828,13 +4828,13 @@
         <v>4947200</v>
       </c>
       <c r="I89">
-        <v>91895880000</v>
+        <v>91129347300</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-09T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4360505372000</v>
+        <v>3967946523800</v>
       </c>
       <c r="L89">
         <v>239219500</v>
@@ -4843,13 +4843,13 @@
         <v>-2474500</v>
       </c>
       <c r="N89">
-        <v>-48142140000</v>
+        <v>-47826156300</v>
       </c>
       <c r="O89">
         <v>1603300</v>
       </c>
       <c r="P89">
-        <v>63885127000</v>
+        <v>44132599300</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>5000</v>
       </c>
       <c r="E90">
-        <v>35681515000</v>
+        <v>33849349000</v>
       </c>
       <c r="F90">
-        <v>45963172000</v>
+        <v>42595043500</v>
       </c>
       <c r="G90">
         <v>175765000</v>
@@ -4878,13 +4878,13 @@
         <v>3806300</v>
       </c>
       <c r="I90">
-        <v>81820452000</v>
+        <v>76620157500</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-09T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4442325824000</v>
+        <v>4044566681300</v>
       </c>
       <c r="L90">
         <v>243025800</v>
@@ -4893,13 +4893,13 @@
         <v>470300</v>
       </c>
       <c r="N90">
-        <v>10281657000</v>
+        <v>8745694500</v>
       </c>
       <c r="O90">
         <v>2073600</v>
       </c>
       <c r="P90">
-        <v>74166784000</v>
+        <v>52878293800</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>6200</v>
       </c>
       <c r="E91">
-        <v>18518260000</v>
+        <v>17499479800</v>
       </c>
       <c r="F91">
-        <v>33392923000</v>
+        <v>28789231300</v>
       </c>
       <c r="G91">
-        <v>89060000</v>
+        <v>86862200</v>
       </c>
       <c r="H91">
         <v>3063300</v>
       </c>
       <c r="I91">
-        <v>52000243000</v>
+        <v>46375573300</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-09T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4494326067000</v>
+        <v>4090942254600</v>
       </c>
       <c r="L91">
         <v>246089100</v>
@@ -4943,13 +4943,13 @@
         <v>804100</v>
       </c>
       <c r="N91">
-        <v>14874663000</v>
+        <v>11289751500</v>
       </c>
       <c r="O91">
         <v>2877700</v>
       </c>
       <c r="P91">
-        <v>89041447000</v>
+        <v>64168045300</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>14000</v>
       </c>
       <c r="E92">
-        <v>16426817000</v>
+        <v>15853790600</v>
       </c>
       <c r="F92">
-        <v>27754284000</v>
+        <v>25013327700</v>
       </c>
       <c r="G92">
         <v>91593000</v>
@@ -4978,13 +4978,13 @@
         <v>2453900</v>
       </c>
       <c r="I92">
-        <v>44272694000</v>
+        <v>40958711300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-09T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4538598761000</v>
+        <v>4131900965900</v>
       </c>
       <c r="L92">
         <v>248543000</v>
@@ -4993,13 +4993,13 @@
         <v>783500</v>
       </c>
       <c r="N92">
-        <v>11327467000</v>
+        <v>9159537100</v>
       </c>
       <c r="O92">
         <v>3661200</v>
       </c>
       <c r="P92">
-        <v>100368914000</v>
+        <v>73327582400</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>100</v>
       </c>
       <c r="E93">
-        <v>23221059000</v>
+        <v>22250230800</v>
       </c>
       <c r="F93">
-        <v>16738572000</v>
+        <v>15133778400</v>
       </c>
       <c r="G93">
         <v>2760000</v>
@@ -5028,13 +5028,13 @@
         <v>2149400</v>
       </c>
       <c r="I93">
-        <v>39962391000</v>
+        <v>37386769200</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-09T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4578561152000</v>
+        <v>4169287735100</v>
       </c>
       <c r="L93">
         <v>250692400</v>
@@ -5043,13 +5043,13 @@
         <v>124100</v>
       </c>
       <c r="N93">
-        <v>-6482487000</v>
+        <v>-7116452400</v>
       </c>
       <c r="O93">
         <v>3785300</v>
       </c>
       <c r="P93">
-        <v>93886427000</v>
+        <v>66211130000</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>5400</v>
       </c>
       <c r="E94">
-        <v>29302911000</v>
+        <v>28280734200</v>
       </c>
       <c r="F94">
-        <v>22251511000</v>
+        <v>19993271500</v>
       </c>
       <c r="G94">
-        <v>127376000</v>
+        <v>119883500</v>
       </c>
       <c r="H94">
         <v>2950700</v>
       </c>
       <c r="I94">
-        <v>51681798000</v>
+        <v>48393889200</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-09T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4630242950000</v>
+        <v>4217681624300</v>
       </c>
       <c r="L94">
         <v>253643100</v>
@@ -5093,13 +5093,13 @@
         <v>-347300</v>
       </c>
       <c r="N94">
-        <v>-7051400000</v>
+        <v>-8287462700</v>
       </c>
       <c r="O94">
         <v>3438000</v>
       </c>
       <c r="P94">
-        <v>86835027000</v>
+        <v>57923667300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>15300</v>
       </c>
       <c r="E95">
-        <v>18628180000</v>
+        <v>17496412900</v>
       </c>
       <c r="F95">
-        <v>74558144000</v>
+        <v>68744463500</v>
       </c>
       <c r="G95">
         <v>236710000</v>
@@ -5128,13 +5128,13 @@
         <v>4488700</v>
       </c>
       <c r="I95">
-        <v>93423034000</v>
+        <v>86477586400</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-09T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4723665984000</v>
+        <v>4304159210700</v>
       </c>
       <c r="L95">
         <v>258131800</v>
@@ -5143,13 +5143,13 @@
         <v>2415200</v>
       </c>
       <c r="N95">
-        <v>55929964000</v>
+        <v>51248050600</v>
       </c>
       <c r="O95">
         <v>5853200</v>
       </c>
       <c r="P95">
-        <v>142764991000</v>
+        <v>109171717900</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>5700</v>
       </c>
       <c r="E96">
-        <v>19717302000</v>
+        <v>18400520100</v>
       </c>
       <c r="F96">
-        <v>64096681000</v>
+        <v>61399980400</v>
       </c>
       <c r="G96">
         <v>78945000</v>
@@ -5178,13 +5178,13 @@
         <v>4441300</v>
       </c>
       <c r="I96">
-        <v>83892928000</v>
+        <v>79879445500</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-09T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4807558912000</v>
+        <v>4384038656200</v>
       </c>
       <c r="L96">
         <v>262573100</v>
@@ -5193,13 +5193,13 @@
         <v>2485600</v>
       </c>
       <c r="N96">
-        <v>44379379000</v>
+        <v>42999460300</v>
       </c>
       <c r="O96">
         <v>8338800</v>
       </c>
       <c r="P96">
-        <v>187144370000</v>
+        <v>152171178200</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>16800</v>
       </c>
       <c r="E97">
-        <v>20775149000</v>
+        <v>18908018000</v>
       </c>
       <c r="F97">
-        <v>43249585000</v>
+        <v>41788147900</v>
       </c>
       <c r="G97">
         <v>157392000</v>
@@ -5228,13 +5228,13 @@
         <v>3840100</v>
       </c>
       <c r="I97">
-        <v>64182126000</v>
+        <v>60853557900</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-09T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>4871741038000</v>
+        <v>4444892214100</v>
       </c>
       <c r="L97">
         <v>266413200</v>
@@ -5243,13 +5243,13 @@
         <v>1204500</v>
       </c>
       <c r="N97">
-        <v>22474436000</v>
+        <v>22880129900</v>
       </c>
       <c r="O97">
         <v>9543300</v>
       </c>
       <c r="P97">
-        <v>209618806000</v>
+        <v>175051308100</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>8700</v>
       </c>
       <c r="E98">
-        <v>26165156000</v>
+        <v>23670653000</v>
       </c>
       <c r="F98">
-        <v>94811995000</v>
+        <v>86135380300</v>
       </c>
       <c r="G98">
         <v>501369000</v>
@@ -5278,13 +5278,13 @@
         <v>6113600</v>
       </c>
       <c r="I98">
-        <v>121478520000</v>
+        <v>110307402300</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-09T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>4993219558000</v>
+        <v>4555199616400</v>
       </c>
       <c r="L98">
         <v>272526800</v>
@@ -5293,13 +5293,13 @@
         <v>3450500</v>
       </c>
       <c r="N98">
-        <v>68646839000</v>
+        <v>62464727300</v>
       </c>
       <c r="O98">
         <v>12993800</v>
       </c>
       <c r="P98">
-        <v>278265645000</v>
+        <v>237516035400</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>1600</v>
       </c>
       <c r="E99">
-        <v>25394317000</v>
+        <v>24787924000</v>
       </c>
       <c r="F99">
-        <v>70624406000</v>
+        <v>64839696500</v>
       </c>
       <c r="G99">
         <v>36360000</v>
@@ -5328,13 +5328,13 @@
         <v>5801300</v>
       </c>
       <c r="I99">
-        <v>96055083000</v>
+        <v>89663980500</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-09T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5089274641000</v>
+        <v>4644863596900</v>
       </c>
       <c r="L99">
         <v>278328100</v>
@@ -5343,13 +5343,13 @@
         <v>2848700</v>
       </c>
       <c r="N99">
-        <v>45230089000</v>
+        <v>40051772500</v>
       </c>
       <c r="O99">
         <v>15842500</v>
       </c>
       <c r="P99">
-        <v>323495734000</v>
+        <v>277567807900</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>12300</v>
       </c>
       <c r="E100">
-        <v>46091421000</v>
+        <v>41780835900</v>
       </c>
       <c r="F100">
-        <v>34195355000</v>
+        <v>32537714300</v>
       </c>
       <c r="G100">
         <v>210790000</v>
@@ -5378,13 +5378,13 @@
         <v>4487700</v>
       </c>
       <c r="I100">
-        <v>80497566000</v>
+        <v>74529340200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-09T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5169772207000</v>
+        <v>4719392937100</v>
       </c>
       <c r="L100">
         <v>282815800</v>
@@ -5393,13 +5393,13 @@
         <v>-792800</v>
       </c>
       <c r="N100">
-        <v>-11896066000</v>
+        <v>-9243121600</v>
       </c>
       <c r="O100">
         <v>15049700</v>
       </c>
       <c r="P100">
-        <v>311599668000</v>
+        <v>268324686300</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>6900</v>
       </c>
       <c r="E101">
-        <v>36100961000</v>
+        <v>34962900200</v>
       </c>
       <c r="F101">
-        <v>39386749000</v>
+        <v>37011826300</v>
       </c>
       <c r="G101">
         <v>82850000</v>
@@ -5428,13 +5428,13 @@
         <v>4287000</v>
       </c>
       <c r="I101">
-        <v>75570560000</v>
+        <v>72057576500</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-09T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5245342767000</v>
+        <v>4791450513600</v>
       </c>
       <c r="L101">
         <v>287102800</v>
@@ -5443,13 +5443,13 @@
         <v>425100</v>
       </c>
       <c r="N101">
-        <v>3285788000</v>
+        <v>2048926100</v>
       </c>
       <c r="O101">
         <v>15474800</v>
       </c>
       <c r="P101">
-        <v>314885456000</v>
+        <v>270373612400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>4500</v>
       </c>
       <c r="E102">
-        <v>29068265000</v>
+        <v>28604229500</v>
       </c>
       <c r="F102">
-        <v>21644676000</v>
+        <v>20700221400</v>
       </c>
       <c r="G102">
         <v>93410000</v>
@@ -5478,13 +5478,13 @@
         <v>2653500</v>
       </c>
       <c r="I102">
-        <v>50806351000</v>
+        <v>49397860900</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-09T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5296149118000</v>
+        <v>4840848374500</v>
       </c>
       <c r="L102">
         <v>289756300</v>
@@ -5493,13 +5493,13 @@
         <v>-566000</v>
       </c>
       <c r="N102">
-        <v>-7423589000</v>
+        <v>-7904008100</v>
       </c>
       <c r="O102">
         <v>14908800</v>
       </c>
       <c r="P102">
-        <v>307461867000</v>
+        <v>262469604300</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>2800</v>
       </c>
       <c r="E103">
-        <v>31890082000</v>
+        <v>30780093100</v>
       </c>
       <c r="F103">
-        <v>31270345000</v>
+        <v>29847069700</v>
       </c>
       <c r="G103">
         <v>206720000</v>
@@ -5528,13 +5528,13 @@
         <v>3154700</v>
       </c>
       <c r="I103">
-        <v>63367147000</v>
+        <v>60833882800</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-09T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5359516265000</v>
+        <v>4901682257300</v>
       </c>
       <c r="L103">
         <v>292911000</v>
@@ -5543,13 +5543,13 @@
         <v>277500</v>
       </c>
       <c r="N103">
-        <v>-619737000</v>
+        <v>-933023400</v>
       </c>
       <c r="O103">
         <v>15186300</v>
       </c>
       <c r="P103">
-        <v>306842130000</v>
+        <v>261536580900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>7700</v>
       </c>
       <c r="E104">
-        <v>33742171000</v>
+        <v>32642172100</v>
       </c>
       <c r="F104">
-        <v>20273583000</v>
+        <v>19970186700</v>
       </c>
       <c r="G104">
-        <v>218910000</v>
+        <v>217911000</v>
       </c>
       <c r="H104">
         <v>3078400</v>
       </c>
       <c r="I104">
-        <v>54234664000</v>
+        <v>52830269800</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-09T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5413750929000</v>
+        <v>4954512527100</v>
       </c>
       <c r="L104">
         <v>295989400</v>
@@ -5593,13 +5593,13 @@
         <v>-656700</v>
       </c>
       <c r="N104">
-        <v>-13468588000</v>
+        <v>-12671985400</v>
       </c>
       <c r="O104">
         <v>14529600</v>
       </c>
       <c r="P104">
-        <v>293373542000</v>
+        <v>248864595500</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>29100</v>
       </c>
       <c r="E105">
-        <v>16040828000</v>
+        <v>15361208300</v>
       </c>
       <c r="F105">
-        <v>30576302000</v>
+        <v>28337642900</v>
       </c>
       <c r="G105">
         <v>594944000</v>
@@ -5628,13 +5628,13 @@
         <v>2793600</v>
       </c>
       <c r="I105">
-        <v>47212074000</v>
+        <v>44293795200</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-09T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5460963003000</v>
+        <v>4998806322300</v>
       </c>
       <c r="L105">
         <v>298783000</v>
@@ -5643,13 +5643,13 @@
         <v>809500</v>
       </c>
       <c r="N105">
-        <v>14535474000</v>
+        <v>12976434600</v>
       </c>
       <c r="O105">
         <v>15339100</v>
       </c>
       <c r="P105">
-        <v>307909016000</v>
+        <v>261841030100</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>8200</v>
       </c>
       <c r="E106">
-        <v>16388635000</v>
+        <v>16065958000</v>
       </c>
       <c r="F106">
-        <v>31143535000</v>
+        <v>30458820400</v>
       </c>
       <c r="G106">
         <v>160020000</v>
@@ -5678,13 +5678,13 @@
         <v>2545300</v>
       </c>
       <c r="I106">
-        <v>47692190000</v>
+        <v>46684798400</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-09T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5508655193000</v>
+        <v>5045491120700</v>
       </c>
       <c r="L106">
         <v>301328300</v>
@@ -5693,13 +5693,13 @@
         <v>562100</v>
       </c>
       <c r="N106">
-        <v>14754900000</v>
+        <v>14392862400</v>
       </c>
       <c r="O106">
         <v>15901200</v>
       </c>
       <c r="P106">
-        <v>322663916000</v>
+        <v>276233892500</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>12900</v>
       </c>
       <c r="E107">
-        <v>26745250000</v>
+        <v>26226269500</v>
       </c>
       <c r="F107">
-        <v>20472080000</v>
+        <v>19120133300</v>
       </c>
       <c r="G107">
-        <v>245865000</v>
+        <v>185925000</v>
       </c>
       <c r="H107">
         <v>2646400</v>
       </c>
       <c r="I107">
-        <v>47463195000</v>
+        <v>45532327800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-09T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5556118388000</v>
+        <v>5091023448500</v>
       </c>
       <c r="L107">
         <v>303974700</v>
@@ -5743,13 +5743,13 @@
         <v>14500</v>
       </c>
       <c r="N107">
-        <v>-6273170000</v>
+        <v>-7106136200</v>
       </c>
       <c r="O107">
         <v>15915700</v>
       </c>
       <c r="P107">
-        <v>316390746000</v>
+        <v>269127756300</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>15500</v>
       </c>
       <c r="E108">
-        <v>37836172000</v>
+        <v>36757052200</v>
       </c>
       <c r="F108">
-        <v>19601794000</v>
+        <v>18686809900</v>
       </c>
       <c r="G108">
-        <v>668308000</v>
+        <v>663512800</v>
       </c>
       <c r="H108">
         <v>3247000</v>
       </c>
       <c r="I108">
-        <v>58106274000</v>
+        <v>56107374900</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-09T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5614224662000</v>
+        <v>5147130823400</v>
       </c>
       <c r="L108">
         <v>307221700</v>
@@ -5793,13 +5793,13 @@
         <v>-934100</v>
       </c>
       <c r="N108">
-        <v>-18234378000</v>
+        <v>-18070242300</v>
       </c>
       <c r="O108">
         <v>14981600</v>
       </c>
       <c r="P108">
-        <v>298156368000</v>
+        <v>251057514000</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>800</v>
       </c>
       <c r="E109">
-        <v>29015987000</v>
+        <v>28382021600</v>
       </c>
       <c r="F109">
-        <v>34263142000</v>
+        <v>33734571100</v>
       </c>
       <c r="G109">
         <v>14580000</v>
@@ -5828,13 +5828,13 @@
         <v>3240600</v>
       </c>
       <c r="I109">
-        <v>63293709000</v>
+        <v>62131172700</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-09T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5677518371000</v>
+        <v>5209261996100</v>
       </c>
       <c r="L109">
         <v>310462300</v>
@@ -5843,13 +5843,13 @@
         <v>150200</v>
       </c>
       <c r="N109">
-        <v>5247155000</v>
+        <v>5352549500</v>
       </c>
       <c r="O109">
         <v>15131800</v>
       </c>
       <c r="P109">
-        <v>303403523000</v>
+        <v>256410063500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>13200</v>
       </c>
       <c r="E110">
-        <v>13589936000</v>
+        <v>13367358800</v>
       </c>
       <c r="F110">
-        <v>57048284000</v>
+        <v>53664671000</v>
       </c>
       <c r="G110">
         <v>197847000</v>
@@ -5878,13 +5878,13 @@
         <v>3237400</v>
       </c>
       <c r="I110">
-        <v>70836067000</v>
+        <v>67229876800</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-09T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>5748354438000</v>
+        <v>5276491872900</v>
       </c>
       <c r="L110">
         <v>313699700</v>
@@ -5893,13 +5893,13 @@
         <v>1682000</v>
       </c>
       <c r="N110">
-        <v>43458348000</v>
+        <v>40297312200</v>
       </c>
       <c r="O110">
         <v>16813800</v>
       </c>
       <c r="P110">
-        <v>346861871000</v>
+        <v>296707375700</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>5600</v>
       </c>
       <c r="E111">
-        <v>15154170000</v>
+        <v>14277048000</v>
       </c>
       <c r="F111">
-        <v>81153375000</v>
+        <v>75264369900</v>
       </c>
       <c r="G111">
-        <v>104872000</v>
+        <v>90486400</v>
       </c>
       <c r="H111">
         <v>4968600</v>
       </c>
       <c r="I111">
-        <v>96412417000</v>
+        <v>89631904300</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-09T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>5844766855000</v>
+        <v>5366123777200</v>
       </c>
       <c r="L111">
         <v>318668300</v>
@@ -5943,13 +5943,13 @@
         <v>3228400</v>
       </c>
       <c r="N111">
-        <v>65999205000</v>
+        <v>60987321900</v>
       </c>
       <c r="O111">
         <v>20042200</v>
       </c>
       <c r="P111">
-        <v>412861076000</v>
+        <v>357694697600</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>35000</v>
       </c>
       <c r="E112">
-        <v>43191165000</v>
+        <v>39280879200</v>
       </c>
       <c r="F112">
-        <v>42487768000</v>
+        <v>39082476700</v>
       </c>
       <c r="G112">
         <v>797856000</v>
@@ -5978,13 +5978,13 @@
         <v>4803100</v>
       </c>
       <c r="I112">
-        <v>86476789000</v>
+        <v>79161211900</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-09T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>5931243644000</v>
+        <v>5445284989100</v>
       </c>
       <c r="L112">
         <v>323471400</v>
@@ -5993,13 +5993,13 @@
         <v>372700</v>
       </c>
       <c r="N112">
-        <v>-703397000</v>
+        <v>-198402500</v>
       </c>
       <c r="O112">
         <v>20414900</v>
       </c>
       <c r="P112">
-        <v>412157679000</v>
+        <v>357496295100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>14200</v>
       </c>
       <c r="E113">
-        <v>44300245000</v>
+        <v>41111037400</v>
       </c>
       <c r="F113">
-        <v>27864452000</v>
+        <v>25523994800</v>
       </c>
       <c r="G113">
-        <v>258050000</v>
+        <v>60248000</v>
       </c>
       <c r="H113">
         <v>3374700</v>
       </c>
       <c r="I113">
-        <v>72422747000</v>
+        <v>66695280200</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-09T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>6003666391000</v>
+        <v>5511980269300</v>
       </c>
       <c r="L113">
         <v>326846100</v>
@@ -6043,13 +6043,13 @@
         <v>-626700</v>
       </c>
       <c r="N113">
-        <v>-16435793000</v>
+        <v>-15587042600</v>
       </c>
       <c r="O113">
         <v>19788200</v>
       </c>
       <c r="P113">
-        <v>395721886000</v>
+        <v>341909252500</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>31600</v>
       </c>
       <c r="E114">
-        <v>116162982000</v>
+        <v>109567284300</v>
       </c>
       <c r="F114">
-        <v>19037275000</v>
+        <v>18078934300</v>
       </c>
       <c r="G114">
-        <v>740067000</v>
+        <v>729277800</v>
       </c>
       <c r="H114">
         <v>6462100</v>
       </c>
       <c r="I114">
-        <v>135940324000</v>
+        <v>128375496400</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-09T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>6139606715000</v>
+        <v>5640355765700</v>
       </c>
       <c r="L114">
         <v>333308200</v>
@@ -6093,13 +6093,13 @@
         <v>-4326300</v>
       </c>
       <c r="N114">
-        <v>-97125707000</v>
+        <v>-91488350000</v>
       </c>
       <c r="O114">
         <v>15461900</v>
       </c>
       <c r="P114">
-        <v>298596179000</v>
+        <v>250420902500</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>37400</v>
       </c>
       <c r="E115">
-        <v>97368735000</v>
+        <v>94885221000</v>
       </c>
       <c r="F115">
-        <v>24450206000</v>
+        <v>24160595900</v>
       </c>
       <c r="G115">
         <v>566979000</v>
@@ -6128,13 +6128,13 @@
         <v>7448100</v>
       </c>
       <c r="I115">
-        <v>122385920000</v>
+        <v>119612795900</v>
       </c>
       <c r="J115" t="str">
         <v>2023-02-09T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6261992635000</v>
+        <v>5759968561600</v>
       </c>
       <c r="L115">
         <v>340756300</v>
@@ -6143,13 +6143,13 @@
         <v>-4278100</v>
       </c>
       <c r="N115">
-        <v>-72918529000</v>
+        <v>-70724625100</v>
       </c>
       <c r="O115">
         <v>11183800</v>
       </c>
       <c r="P115">
-        <v>225677650000</v>
+        <v>179696277400</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2023-02-09T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6262086405000</v>
+        <v>5760062331600</v>
       </c>
       <c r="L116">
         <v>340759100</v>
@@ -6199,7 +6199,7 @@
         <v>11184600</v>
       </c>
       <c r="P116">
-        <v>225635020000</v>
+        <v>179653647400</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>21273600</v>
       </c>
       <c r="E117">
-        <v>13145229000</v>
+        <v>10349727300</v>
       </c>
       <c r="F117">
-        <v>6476424000</v>
+        <v>6306194400</v>
       </c>
       <c r="G117">
-        <v>468125669000</v>
+        <v>398640523700</v>
       </c>
       <c r="H117">
         <v>22262900</v>
       </c>
       <c r="I117">
-        <v>487747322000</v>
+        <v>415296445400</v>
       </c>
       <c r="J117" t="str">
         <v>2023-02-09T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6749833727000</v>
+        <v>6175358777000</v>
       </c>
       <c r="L117">
         <v>363022000</v>
@@ -6243,13 +6243,13 @@
         <v>-111100</v>
       </c>
       <c r="N117">
-        <v>-6668805000</v>
+        <v>-4043532900</v>
       </c>
       <c r="O117">
         <v>11073500</v>
       </c>
       <c r="P117">
-        <v>218966215000</v>
+        <v>175610114500</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230209/VNINDEX_HOSE_5p_20230209.xlsx
+++ b/name/vnindex/20230209/VNINDEX_HOSE_5p_20230209.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-4705957800</v>
       </c>
+      <c r="Q2">
+        <v>15207252500</v>
+      </c>
+      <c r="R2">
+        <v>19913210300</v>
+      </c>
+      <c r="S2">
+        <v>964600</v>
+      </c>
+      <c r="T2">
+        <v>2156900</v>
+      </c>
+      <c r="U2">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V2">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W2">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X2">
+        <v>3129500</v>
+      </c>
+      <c r="Y2">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z2">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA2">
+        <v>95461.2</v>
+      </c>
+      <c r="AB2">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC2">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>653492300</v>
       </c>
+      <c r="Q3">
+        <v>36430649100</v>
+      </c>
+      <c r="R3">
+        <v>35777156800</v>
+      </c>
+      <c r="S3">
+        <v>2611400</v>
+      </c>
+      <c r="T3">
+        <v>3743300</v>
+      </c>
+      <c r="U3">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V3">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W3">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X3">
+        <v>3129500</v>
+      </c>
+      <c r="Y3">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z3">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA3">
+        <v>95461.2</v>
+      </c>
+      <c r="AB3">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC3">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>11917427200</v>
       </c>
+      <c r="Q4">
+        <v>59887574000</v>
+      </c>
+      <c r="R4">
+        <v>47970146800</v>
+      </c>
+      <c r="S4">
+        <v>3948000</v>
+      </c>
+      <c r="T4">
+        <v>4569200</v>
+      </c>
+      <c r="U4">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V4">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W4">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X4">
+        <v>3129500</v>
+      </c>
+      <c r="Y4">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z4">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA4">
+        <v>95461.2</v>
+      </c>
+      <c r="AB4">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC4">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>4763044000</v>
       </c>
+      <c r="Q5">
+        <v>79279854400</v>
+      </c>
+      <c r="R5">
+        <v>74516810400</v>
+      </c>
+      <c r="S5">
+        <v>5108600</v>
+      </c>
+      <c r="T5">
+        <v>6029600</v>
+      </c>
+      <c r="U5">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V5">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W5">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X5">
+        <v>3129500</v>
+      </c>
+      <c r="Y5">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z5">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA5">
+        <v>95461.2</v>
+      </c>
+      <c r="AB5">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC5">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-723313100</v>
       </c>
+      <c r="Q6">
+        <v>102982915600</v>
+      </c>
+      <c r="R6">
+        <v>103706228700</v>
+      </c>
+      <c r="S6">
+        <v>6395700</v>
+      </c>
+      <c r="T6">
+        <v>7789600</v>
+      </c>
+      <c r="U6">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V6">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W6">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X6">
+        <v>3129500</v>
+      </c>
+      <c r="Y6">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z6">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA6">
+        <v>95461.2</v>
+      </c>
+      <c r="AB6">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC6">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-18128556600</v>
       </c>
+      <c r="Q7">
+        <v>113881115800</v>
+      </c>
+      <c r="R7">
+        <v>132009672400</v>
+      </c>
+      <c r="S7">
+        <v>7135800</v>
+      </c>
+      <c r="T7">
+        <v>9465100</v>
+      </c>
+      <c r="U7">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V7">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W7">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X7">
+        <v>3129500</v>
+      </c>
+      <c r="Y7">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z7">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA7">
+        <v>95461.2</v>
+      </c>
+      <c r="AB7">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC7">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-26657618500</v>
       </c>
+      <c r="Q8">
+        <v>123501440700</v>
+      </c>
+      <c r="R8">
+        <v>150159059200</v>
+      </c>
+      <c r="S8">
+        <v>7760400</v>
+      </c>
+      <c r="T8">
+        <v>10692900</v>
+      </c>
+      <c r="U8">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V8">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W8">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X8">
+        <v>3129500</v>
+      </c>
+      <c r="Y8">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z8">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA8">
+        <v>95461.2</v>
+      </c>
+      <c r="AB8">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC8">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-22708972400</v>
       </c>
+      <c r="Q9">
+        <v>139601106500</v>
+      </c>
+      <c r="R9">
+        <v>162310078900</v>
+      </c>
+      <c r="S9">
+        <v>8912700</v>
+      </c>
+      <c r="T9">
+        <v>11560800</v>
+      </c>
+      <c r="U9">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V9">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W9">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X9">
+        <v>3129500</v>
+      </c>
+      <c r="Y9">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z9">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA9">
+        <v>95461.2</v>
+      </c>
+      <c r="AB9">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC9">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-33220667400</v>
       </c>
+      <c r="Q10">
+        <v>158073111000</v>
+      </c>
+      <c r="R10">
+        <v>191293778400</v>
+      </c>
+      <c r="S10">
+        <v>10110200</v>
+      </c>
+      <c r="T10">
+        <v>13163400</v>
+      </c>
+      <c r="U10">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V10">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W10">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X10">
+        <v>3129500</v>
+      </c>
+      <c r="Y10">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z10">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA10">
+        <v>95461.2</v>
+      </c>
+      <c r="AB10">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC10">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-36056250200</v>
       </c>
+      <c r="Q11">
+        <v>168300587600</v>
+      </c>
+      <c r="R11">
+        <v>204356837800</v>
+      </c>
+      <c r="S11">
+        <v>10937300</v>
+      </c>
+      <c r="T11">
+        <v>14101600</v>
+      </c>
+      <c r="U11">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V11">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W11">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X11">
+        <v>3129500</v>
+      </c>
+      <c r="Y11">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z11">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA11">
+        <v>95461.2</v>
+      </c>
+      <c r="AB11">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC11">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-35074047900</v>
       </c>
+      <c r="Q12">
+        <v>184650887600</v>
+      </c>
+      <c r="R12">
+        <v>219724935500</v>
+      </c>
+      <c r="S12">
+        <v>11956900</v>
+      </c>
+      <c r="T12">
+        <v>15026600</v>
+      </c>
+      <c r="U12">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V12">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W12">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X12">
+        <v>3129500</v>
+      </c>
+      <c r="Y12">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z12">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA12">
+        <v>95461.2</v>
+      </c>
+      <c r="AB12">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC12">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-40805022500</v>
       </c>
+      <c r="Q13">
+        <v>199652329400</v>
+      </c>
+      <c r="R13">
+        <v>240457351900</v>
+      </c>
+      <c r="S13">
+        <v>13124000</v>
+      </c>
+      <c r="T13">
+        <v>16107900</v>
+      </c>
+      <c r="U13">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V13">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W13">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X13">
+        <v>3129500</v>
+      </c>
+      <c r="Y13">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z13">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA13">
+        <v>95461.2</v>
+      </c>
+      <c r="AB13">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC13">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-37642205900</v>
       </c>
+      <c r="Q14">
+        <v>216962423200</v>
+      </c>
+      <c r="R14">
+        <v>254604629100</v>
+      </c>
+      <c r="S14">
+        <v>14355400</v>
+      </c>
+      <c r="T14">
+        <v>16945800</v>
+      </c>
+      <c r="U14">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V14">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W14">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X14">
+        <v>3129500</v>
+      </c>
+      <c r="Y14">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z14">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA14">
+        <v>95461.2</v>
+      </c>
+      <c r="AB14">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC14">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-30531473500</v>
       </c>
+      <c r="Q15">
+        <v>238132055500</v>
+      </c>
+      <c r="R15">
+        <v>268663529000</v>
+      </c>
+      <c r="S15">
+        <v>15600000</v>
+      </c>
+      <c r="T15">
+        <v>17807000</v>
+      </c>
+      <c r="U15">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V15">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W15">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X15">
+        <v>3129500</v>
+      </c>
+      <c r="Y15">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z15">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA15">
+        <v>95461.2</v>
+      </c>
+      <c r="AB15">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC15">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-13630389200</v>
       </c>
+      <c r="Q16">
+        <v>266564500000</v>
+      </c>
+      <c r="R16">
+        <v>280194889200</v>
+      </c>
+      <c r="S16">
+        <v>17143100</v>
+      </c>
+      <c r="T16">
+        <v>18573900</v>
+      </c>
+      <c r="U16">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V16">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W16">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X16">
+        <v>3129500</v>
+      </c>
+      <c r="Y16">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z16">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA16">
+        <v>95461.2</v>
+      </c>
+      <c r="AB16">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC16">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-944555900</v>
       </c>
+      <c r="Q17">
+        <v>293228124600</v>
+      </c>
+      <c r="R17">
+        <v>294172680500</v>
+      </c>
+      <c r="S17">
+        <v>18953700</v>
+      </c>
+      <c r="T17">
+        <v>19352100</v>
+      </c>
+      <c r="U17">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V17">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W17">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X17">
+        <v>3129500</v>
+      </c>
+      <c r="Y17">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z17">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA17">
+        <v>95461.2</v>
+      </c>
+      <c r="AB17">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC17">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>17352181700</v>
       </c>
+      <c r="Q18">
+        <v>320964468700</v>
+      </c>
+      <c r="R18">
+        <v>303612287000</v>
+      </c>
+      <c r="S18">
+        <v>20747600</v>
+      </c>
+      <c r="T18">
+        <v>19990800</v>
+      </c>
+      <c r="U18">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V18">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W18">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X18">
+        <v>3129500</v>
+      </c>
+      <c r="Y18">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z18">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA18">
+        <v>95461.2</v>
+      </c>
+      <c r="AB18">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC18">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>28167269800</v>
       </c>
+      <c r="Q19">
+        <v>348855744200</v>
+      </c>
+      <c r="R19">
+        <v>320688474400</v>
+      </c>
+      <c r="S19">
+        <v>22715800</v>
+      </c>
+      <c r="T19">
+        <v>21084400</v>
+      </c>
+      <c r="U19">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V19">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W19">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X19">
+        <v>3129500</v>
+      </c>
+      <c r="Y19">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z19">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA19">
+        <v>95461.2</v>
+      </c>
+      <c r="AB19">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC19">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>52005197400</v>
       </c>
+      <c r="Q20">
+        <v>382366183400</v>
+      </c>
+      <c r="R20">
+        <v>330360986000</v>
+      </c>
+      <c r="S20">
+        <v>24956400</v>
+      </c>
+      <c r="T20">
+        <v>21729400</v>
+      </c>
+      <c r="U20">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V20">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W20">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X20">
+        <v>3129500</v>
+      </c>
+      <c r="Y20">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z20">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA20">
+        <v>95461.2</v>
+      </c>
+      <c r="AB20">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC20">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>80447360200</v>
       </c>
+      <c r="Q21">
+        <v>426104764400</v>
+      </c>
+      <c r="R21">
+        <v>345657404200</v>
+      </c>
+      <c r="S21">
+        <v>27646100</v>
+      </c>
+      <c r="T21">
+        <v>23012400</v>
+      </c>
+      <c r="U21">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V21">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W21">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X21">
+        <v>3129500</v>
+      </c>
+      <c r="Y21">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z21">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA21">
+        <v>95461.2</v>
+      </c>
+      <c r="AB21">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC21">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>102951386500</v>
       </c>
+      <c r="Q22">
+        <v>458411223900</v>
+      </c>
+      <c r="R22">
+        <v>355459837400</v>
+      </c>
+      <c r="S22">
+        <v>30291600</v>
+      </c>
+      <c r="T22">
+        <v>23658500</v>
+      </c>
+      <c r="U22">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V22">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W22">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X22">
+        <v>3129500</v>
+      </c>
+      <c r="Y22">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z22">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA22">
+        <v>95461.2</v>
+      </c>
+      <c r="AB22">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC22">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>121396059900</v>
       </c>
+      <c r="Q23">
+        <v>494929035200</v>
+      </c>
+      <c r="R23">
+        <v>373532975300</v>
+      </c>
+      <c r="S23">
+        <v>33114000</v>
+      </c>
+      <c r="T23">
+        <v>24864000</v>
+      </c>
+      <c r="U23">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V23">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W23">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X23">
+        <v>3129500</v>
+      </c>
+      <c r="Y23">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z23">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA23">
+        <v>95461.2</v>
+      </c>
+      <c r="AB23">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC23">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>145848318800</v>
       </c>
+      <c r="Q24">
+        <v>535971737600</v>
+      </c>
+      <c r="R24">
+        <v>390123418800</v>
+      </c>
+      <c r="S24">
+        <v>35458100</v>
+      </c>
+      <c r="T24">
+        <v>26105600</v>
+      </c>
+      <c r="U24">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V24">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W24">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X24">
+        <v>3129500</v>
+      </c>
+      <c r="Y24">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z24">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA24">
+        <v>95461.2</v>
+      </c>
+      <c r="AB24">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC24">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>130341292300</v>
       </c>
+      <c r="Q25">
+        <v>557449345800</v>
+      </c>
+      <c r="R25">
+        <v>427108053500</v>
+      </c>
+      <c r="S25">
+        <v>36874800</v>
+      </c>
+      <c r="T25">
+        <v>28007300</v>
+      </c>
+      <c r="U25">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V25">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W25">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X25">
+        <v>3129500</v>
+      </c>
+      <c r="Y25">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z25">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA25">
+        <v>95461.2</v>
+      </c>
+      <c r="AB25">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC25">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>124731893100</v>
       </c>
+      <c r="Q26">
+        <v>573410462200</v>
+      </c>
+      <c r="R26">
+        <v>448678569100</v>
+      </c>
+      <c r="S26">
+        <v>37786000</v>
+      </c>
+      <c r="T26">
+        <v>29415200</v>
+      </c>
+      <c r="U26">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V26">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W26">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X26">
+        <v>3129500</v>
+      </c>
+      <c r="Y26">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z26">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA26">
+        <v>95461.2</v>
+      </c>
+      <c r="AB26">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC26">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>127046309200</v>
       </c>
+      <c r="Q27">
+        <v>588584127300</v>
+      </c>
+      <c r="R27">
+        <v>461537818100</v>
+      </c>
+      <c r="S27">
+        <v>39304700</v>
+      </c>
+      <c r="T27">
+        <v>30234600</v>
+      </c>
+      <c r="U27">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V27">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W27">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X27">
+        <v>3129500</v>
+      </c>
+      <c r="Y27">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z27">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA27">
+        <v>95461.2</v>
+      </c>
+      <c r="AB27">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC27">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>114616727800</v>
       </c>
+      <c r="Q28">
+        <v>601347206300</v>
+      </c>
+      <c r="R28">
+        <v>486730478500</v>
+      </c>
+      <c r="S28">
+        <v>40429200</v>
+      </c>
+      <c r="T28">
+        <v>31632600</v>
+      </c>
+      <c r="U28">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V28">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W28">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X28">
+        <v>3129500</v>
+      </c>
+      <c r="Y28">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z28">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA28">
+        <v>95461.2</v>
+      </c>
+      <c r="AB28">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC28">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>101562830200</v>
       </c>
+      <c r="Q29">
+        <v>611809319100</v>
+      </c>
+      <c r="R29">
+        <v>510246488900</v>
+      </c>
+      <c r="S29">
+        <v>41117400</v>
+      </c>
+      <c r="T29">
+        <v>32896200</v>
+      </c>
+      <c r="U29">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V29">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W29">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X29">
+        <v>3129500</v>
+      </c>
+      <c r="Y29">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z29">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA29">
+        <v>95461.2</v>
+      </c>
+      <c r="AB29">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC29">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>105992401200</v>
       </c>
+      <c r="Q30">
+        <v>625769856000</v>
+      </c>
+      <c r="R30">
+        <v>519777454800</v>
+      </c>
+      <c r="S30">
+        <v>41753500</v>
+      </c>
+      <c r="T30">
+        <v>33662400</v>
+      </c>
+      <c r="U30">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V30">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W30">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X30">
+        <v>3129500</v>
+      </c>
+      <c r="Y30">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z30">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA30">
+        <v>95461.2</v>
+      </c>
+      <c r="AB30">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC30">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>93335996200</v>
       </c>
+      <c r="Q31">
+        <v>642060834300</v>
+      </c>
+      <c r="R31">
+        <v>548724838100</v>
+      </c>
+      <c r="S31">
+        <v>42569300</v>
+      </c>
+      <c r="T31">
+        <v>35220900</v>
+      </c>
+      <c r="U31">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V31">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W31">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X31">
+        <v>3129500</v>
+      </c>
+      <c r="Y31">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z31">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA31">
+        <v>95461.2</v>
+      </c>
+      <c r="AB31">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC31">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>82452405900</v>
       </c>
+      <c r="Q32">
+        <v>654142266300</v>
+      </c>
+      <c r="R32">
+        <v>571689860400</v>
+      </c>
+      <c r="S32">
+        <v>43205100</v>
+      </c>
+      <c r="T32">
+        <v>36576200</v>
+      </c>
+      <c r="U32">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V32">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W32">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X32">
+        <v>3129500</v>
+      </c>
+      <c r="Y32">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z32">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA32">
+        <v>95461.2</v>
+      </c>
+      <c r="AB32">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC32">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>86604362400</v>
       </c>
+      <c r="Q33">
+        <v>667124040000</v>
+      </c>
+      <c r="R33">
+        <v>580519677600</v>
+      </c>
+      <c r="S33">
+        <v>43862500</v>
+      </c>
+      <c r="T33">
+        <v>37146400</v>
+      </c>
+      <c r="U33">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V33">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W33">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X33">
+        <v>3129500</v>
+      </c>
+      <c r="Y33">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z33">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA33">
+        <v>95461.2</v>
+      </c>
+      <c r="AB33">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC33">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>84766205000</v>
       </c>
+      <c r="Q34">
+        <v>679311961100</v>
+      </c>
+      <c r="R34">
+        <v>594545756100</v>
+      </c>
+      <c r="S34">
+        <v>44797500</v>
+      </c>
+      <c r="T34">
+        <v>38112900</v>
+      </c>
+      <c r="U34">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V34">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W34">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X34">
+        <v>3129500</v>
+      </c>
+      <c r="Y34">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z34">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA34">
+        <v>95461.2</v>
+      </c>
+      <c r="AB34">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC34">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>85677948500</v>
       </c>
+      <c r="Q35">
+        <v>691479005500</v>
+      </c>
+      <c r="R35">
+        <v>605801057000</v>
+      </c>
+      <c r="S35">
+        <v>45600400</v>
+      </c>
+      <c r="T35">
+        <v>38840100</v>
+      </c>
+      <c r="U35">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V35">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W35">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X35">
+        <v>3129500</v>
+      </c>
+      <c r="Y35">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z35">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA35">
+        <v>95461.2</v>
+      </c>
+      <c r="AB35">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC35">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>93528987000</v>
       </c>
+      <c r="Q36">
+        <v>705891134400</v>
+      </c>
+      <c r="R36">
+        <v>612362147400</v>
+      </c>
+      <c r="S36">
+        <v>46513000</v>
+      </c>
+      <c r="T36">
+        <v>39331000</v>
+      </c>
+      <c r="U36">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V36">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W36">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X36">
+        <v>3129500</v>
+      </c>
+      <c r="Y36">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z36">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA36">
+        <v>95461.2</v>
+      </c>
+      <c r="AB36">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC36">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>96532699900</v>
       </c>
+      <c r="Q37">
+        <v>717428758700</v>
+      </c>
+      <c r="R37">
+        <v>620896058800</v>
+      </c>
+      <c r="S37">
+        <v>47347400</v>
+      </c>
+      <c r="T37">
+        <v>39886600</v>
+      </c>
+      <c r="U37">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V37">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W37">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X37">
+        <v>3129500</v>
+      </c>
+      <c r="Y37">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z37">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA37">
+        <v>95461.2</v>
+      </c>
+      <c r="AB37">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC37">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>93108237800</v>
       </c>
+      <c r="Q38">
+        <v>728288841300</v>
+      </c>
+      <c r="R38">
+        <v>635180603500</v>
+      </c>
+      <c r="S38">
+        <v>47998700</v>
+      </c>
+      <c r="T38">
+        <v>40733900</v>
+      </c>
+      <c r="U38">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V38">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W38">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X38">
+        <v>3129500</v>
+      </c>
+      <c r="Y38">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z38">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA38">
+        <v>95461.2</v>
+      </c>
+      <c r="AB38">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC38">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>97608686200</v>
       </c>
+      <c r="Q39">
+        <v>742355840900</v>
+      </c>
+      <c r="R39">
+        <v>644747154700</v>
+      </c>
+      <c r="S39">
+        <v>48823100</v>
+      </c>
+      <c r="T39">
+        <v>41314900</v>
+      </c>
+      <c r="U39">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V39">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W39">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X39">
+        <v>3129500</v>
+      </c>
+      <c r="Y39">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z39">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA39">
+        <v>95461.2</v>
+      </c>
+      <c r="AB39">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>103625223200</v>
       </c>
+      <c r="Q40">
+        <v>758585084300</v>
+      </c>
+      <c r="R40">
+        <v>654959861100</v>
+      </c>
+      <c r="S40">
+        <v>49984500</v>
+      </c>
+      <c r="T40">
+        <v>42147400</v>
+      </c>
+      <c r="U40">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V40">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W40">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X40">
+        <v>3129500</v>
+      </c>
+      <c r="Y40">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z40">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA40">
+        <v>95461.2</v>
+      </c>
+      <c r="AB40">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC40">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>127976018600</v>
       </c>
+      <c r="Q41">
+        <v>792946243900</v>
+      </c>
+      <c r="R41">
+        <v>664970225300</v>
+      </c>
+      <c r="S41">
+        <v>51836000</v>
+      </c>
+      <c r="T41">
+        <v>42967600</v>
+      </c>
+      <c r="U41">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V41">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W41">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X41">
+        <v>3129500</v>
+      </c>
+      <c r="Y41">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z41">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA41">
+        <v>95461.2</v>
+      </c>
+      <c r="AB41">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC41">
+        <v>16.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>166629221000</v>
       </c>
+      <c r="Q42">
+        <v>841731874800</v>
+      </c>
+      <c r="R42">
+        <v>675102653800</v>
+      </c>
+      <c r="S42">
+        <v>54529100</v>
+      </c>
+      <c r="T42">
+        <v>43543100</v>
+      </c>
+      <c r="U42">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V42">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W42">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X42">
+        <v>3129500</v>
+      </c>
+      <c r="Y42">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z42">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA42">
+        <v>95461.2</v>
+      </c>
+      <c r="AB42">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC42">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>207360366400</v>
       </c>
+      <c r="Q43">
+        <v>890870356400</v>
+      </c>
+      <c r="R43">
+        <v>683509990000</v>
+      </c>
+      <c r="S43">
+        <v>57330700</v>
+      </c>
+      <c r="T43">
+        <v>44055800</v>
+      </c>
+      <c r="U43">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V43">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W43">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X43">
+        <v>3129500</v>
+      </c>
+      <c r="Y43">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z43">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA43">
+        <v>95461.2</v>
+      </c>
+      <c r="AB43">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC43">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>232854617600</v>
       </c>
+      <c r="Q44">
+        <v>927390308100</v>
+      </c>
+      <c r="R44">
+        <v>694535690500</v>
+      </c>
+      <c r="S44">
+        <v>59443200</v>
+      </c>
+      <c r="T44">
+        <v>44697600</v>
+      </c>
+      <c r="U44">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V44">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W44">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X44">
+        <v>3129500</v>
+      </c>
+      <c r="Y44">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z44">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA44">
+        <v>95461.2</v>
+      </c>
+      <c r="AB44">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC44">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>245061631100</v>
       </c>
+      <c r="Q45">
+        <v>960062490000</v>
+      </c>
+      <c r="R45">
+        <v>715000858900</v>
+      </c>
+      <c r="S45">
+        <v>60922600</v>
+      </c>
+      <c r="T45">
+        <v>45815900</v>
+      </c>
+      <c r="U45">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V45">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W45">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X45">
+        <v>3129500</v>
+      </c>
+      <c r="Y45">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z45">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA45">
+        <v>95461.2</v>
+      </c>
+      <c r="AB45">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC45">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>235119503300</v>
       </c>
+      <c r="Q46">
+        <v>990175553800</v>
+      </c>
+      <c r="R46">
+        <v>755056050500</v>
+      </c>
+      <c r="S46">
+        <v>62529400</v>
+      </c>
+      <c r="T46">
+        <v>47704300</v>
+      </c>
+      <c r="U46">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V46">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W46">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X46">
+        <v>3129500</v>
+      </c>
+      <c r="Y46">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z46">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA46">
+        <v>95461.2</v>
+      </c>
+      <c r="AB46">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC46">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>260103047100</v>
       </c>
+      <c r="Q47">
+        <v>1038083897400</v>
+      </c>
+      <c r="R47">
+        <v>777980850300</v>
+      </c>
+      <c r="S47">
+        <v>64627800</v>
+      </c>
+      <c r="T47">
+        <v>49002400</v>
+      </c>
+      <c r="U47">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V47">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W47">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X47">
+        <v>3129500</v>
+      </c>
+      <c r="Y47">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z47">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA47">
+        <v>95461.2</v>
+      </c>
+      <c r="AB47">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC47">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>307598409500</v>
       </c>
+      <c r="Q48">
+        <v>1123834910400</v>
+      </c>
+      <c r="R48">
+        <v>816236500900</v>
+      </c>
+      <c r="S48">
+        <v>68474600</v>
+      </c>
+      <c r="T48">
+        <v>50827500</v>
+      </c>
+      <c r="U48">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V48">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W48">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X48">
+        <v>3129500</v>
+      </c>
+      <c r="Y48">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z48">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA48">
+        <v>95461.2</v>
+      </c>
+      <c r="AB48">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC48">
+        <v>31.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>297089709300</v>
       </c>
+      <c r="Q49">
+        <v>1140701982500</v>
+      </c>
+      <c r="R49">
+        <v>843612273200</v>
+      </c>
+      <c r="S49">
+        <v>69686500</v>
+      </c>
+      <c r="T49">
+        <v>52365100</v>
+      </c>
+      <c r="U49">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V49">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W49">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X49">
+        <v>3129500</v>
+      </c>
+      <c r="Y49">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z49">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA49">
+        <v>95461.2</v>
+      </c>
+      <c r="AB49">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC49">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>264360540500</v>
       </c>
+      <c r="Q50">
+        <v>1155229567900</v>
+      </c>
+      <c r="R50">
+        <v>890869027400</v>
+      </c>
+      <c r="S50">
+        <v>70662300</v>
+      </c>
+      <c r="T50">
+        <v>55365000</v>
+      </c>
+      <c r="U50">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V50">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W50">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X50">
+        <v>3129500</v>
+      </c>
+      <c r="Y50">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z50">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA50">
+        <v>95461.2</v>
+      </c>
+      <c r="AB50">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC50">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>251688185200</v>
       </c>
+      <c r="Q51">
+        <v>1172490369900</v>
+      </c>
+      <c r="R51">
+        <v>920802184700</v>
+      </c>
+      <c r="S51">
+        <v>71713600</v>
+      </c>
+      <c r="T51">
+        <v>57188200</v>
+      </c>
+      <c r="U51">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V51">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W51">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X51">
+        <v>3129500</v>
+      </c>
+      <c r="Y51">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z51">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA51">
+        <v>95461.2</v>
+      </c>
+      <c r="AB51">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC51">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>256576900700</v>
       </c>
+      <c r="Q52">
+        <v>1193757566600</v>
+      </c>
+      <c r="R52">
+        <v>937180665900</v>
+      </c>
+      <c r="S52">
+        <v>73029900</v>
+      </c>
+      <c r="T52">
+        <v>58510600</v>
+      </c>
+      <c r="U52">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V52">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W52">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X52">
+        <v>3129500</v>
+      </c>
+      <c r="Y52">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z52">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA52">
+        <v>95461.2</v>
+      </c>
+      <c r="AB52">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC52">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>268992535700</v>
       </c>
+      <c r="Q53">
+        <v>1220767185300</v>
+      </c>
+      <c r="R53">
+        <v>951774649600</v>
+      </c>
+      <c r="S53">
+        <v>74893400</v>
+      </c>
+      <c r="T53">
+        <v>59319700</v>
+      </c>
+      <c r="U53">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V53">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W53">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X53">
+        <v>3129500</v>
+      </c>
+      <c r="Y53">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z53">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA53">
+        <v>95461.2</v>
+      </c>
+      <c r="AB53">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC53">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>279537576800</v>
       </c>
+      <c r="Q54">
+        <v>1252891098400</v>
+      </c>
+      <c r="R54">
+        <v>973353521600</v>
+      </c>
+      <c r="S54">
+        <v>76817100</v>
+      </c>
+      <c r="T54">
+        <v>60637300</v>
+      </c>
+      <c r="U54">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V54">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W54">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X54">
+        <v>3129500</v>
+      </c>
+      <c r="Y54">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z54">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA54">
+        <v>95461.2</v>
+      </c>
+      <c r="AB54">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC54">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>293832491400</v>
       </c>
+      <c r="Q55">
+        <v>1281679760200</v>
+      </c>
+      <c r="R55">
+        <v>987847268800</v>
+      </c>
+      <c r="S55">
+        <v>78230600</v>
+      </c>
+      <c r="T55">
+        <v>61485000</v>
+      </c>
+      <c r="U55">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V55">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W55">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X55">
+        <v>3129500</v>
+      </c>
+      <c r="Y55">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z55">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA55">
+        <v>95461.2</v>
+      </c>
+      <c r="AB55">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC55">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>301617399200</v>
       </c>
+      <c r="Q56">
+        <v>1302575044800</v>
+      </c>
+      <c r="R56">
+        <v>1000957645600</v>
+      </c>
+      <c r="S56">
+        <v>79423900</v>
+      </c>
+      <c r="T56">
+        <v>62254500</v>
+      </c>
+      <c r="U56">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V56">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W56">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X56">
+        <v>3129500</v>
+      </c>
+      <c r="Y56">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z56">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA56">
+        <v>95461.2</v>
+      </c>
+      <c r="AB56">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC56">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>300908408200</v>
       </c>
+      <c r="Q57">
+        <v>1316688829600</v>
+      </c>
+      <c r="R57">
+        <v>1015780421400</v>
+      </c>
+      <c r="S57">
+        <v>80259100</v>
+      </c>
+      <c r="T57">
+        <v>63093600</v>
+      </c>
+      <c r="U57">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V57">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W57">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X57">
+        <v>3129500</v>
+      </c>
+      <c r="Y57">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z57">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA57">
+        <v>95461.2</v>
+      </c>
+      <c r="AB57">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC57">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>298832642600</v>
       </c>
+      <c r="Q58">
+        <v>1332283731100</v>
+      </c>
+      <c r="R58">
+        <v>1033451088500</v>
+      </c>
+      <c r="S58">
+        <v>81243500</v>
+      </c>
+      <c r="T58">
+        <v>64009400</v>
+      </c>
+      <c r="U58">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V58">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W58">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X58">
+        <v>3129500</v>
+      </c>
+      <c r="Y58">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z58">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA58">
+        <v>95461.2</v>
+      </c>
+      <c r="AB58">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC58">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>292063406900</v>
       </c>
+      <c r="Q59">
+        <v>1341820359800</v>
+      </c>
+      <c r="R59">
+        <v>1049756952900</v>
+      </c>
+      <c r="S59">
+        <v>82013800</v>
+      </c>
+      <c r="T59">
+        <v>65145200</v>
+      </c>
+      <c r="U59">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V59">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W59">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X59">
+        <v>3129500</v>
+      </c>
+      <c r="Y59">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z59">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA59">
+        <v>95461.2</v>
+      </c>
+      <c r="AB59">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC59">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>285464823100</v>
       </c>
+      <c r="Q60">
+        <v>1350757861800</v>
+      </c>
+      <c r="R60">
+        <v>1065293038700</v>
+      </c>
+      <c r="S60">
+        <v>82641200</v>
+      </c>
+      <c r="T60">
+        <v>66218300</v>
+      </c>
+      <c r="U60">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V60">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W60">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X60">
+        <v>3129500</v>
+      </c>
+      <c r="Y60">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z60">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA60">
+        <v>95461.2</v>
+      </c>
+      <c r="AB60">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC60">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>271991964000</v>
       </c>
+      <c r="Q61">
+        <v>1360197842400</v>
+      </c>
+      <c r="R61">
+        <v>1088205878400</v>
+      </c>
+      <c r="S61">
+        <v>83170000</v>
+      </c>
+      <c r="T61">
+        <v>67582900</v>
+      </c>
+      <c r="U61">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V61">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W61">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X61">
+        <v>3129500</v>
+      </c>
+      <c r="Y61">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z61">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA61">
+        <v>95461.2</v>
+      </c>
+      <c r="AB61">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC61">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>252080409600</v>
       </c>
+      <c r="Q62">
+        <v>1367642989400</v>
+      </c>
+      <c r="R62">
+        <v>1115562579800</v>
+      </c>
+      <c r="S62">
+        <v>83536100</v>
+      </c>
+      <c r="T62">
+        <v>69109300</v>
+      </c>
+      <c r="U62">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V62">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W62">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X62">
+        <v>3129500</v>
+      </c>
+      <c r="Y62">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z62">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA62">
+        <v>95461.2</v>
+      </c>
+      <c r="AB62">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC62">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>243326860600</v>
       </c>
+      <c r="Q63">
+        <v>1380827771000</v>
+      </c>
+      <c r="R63">
+        <v>1137500910400</v>
+      </c>
+      <c r="S63">
+        <v>84211500</v>
+      </c>
+      <c r="T63">
+        <v>70441300</v>
+      </c>
+      <c r="U63">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V63">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W63">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X63">
+        <v>3129500</v>
+      </c>
+      <c r="Y63">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z63">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA63">
+        <v>95461.2</v>
+      </c>
+      <c r="AB63">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC63">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>216092923400</v>
       </c>
+      <c r="Q64">
+        <v>1388452023200</v>
+      </c>
+      <c r="R64">
+        <v>1172359099800</v>
+      </c>
+      <c r="S64">
+        <v>84698400</v>
+      </c>
+      <c r="T64">
+        <v>73100900</v>
+      </c>
+      <c r="U64">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V64">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W64">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X64">
+        <v>3129500</v>
+      </c>
+      <c r="Y64">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z64">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA64">
+        <v>95461.2</v>
+      </c>
+      <c r="AB64">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC64">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>198823459700</v>
       </c>
+      <c r="Q65">
+        <v>1399679080000</v>
+      </c>
+      <c r="R65">
+        <v>1200855620300</v>
+      </c>
+      <c r="S65">
+        <v>85391600</v>
+      </c>
+      <c r="T65">
+        <v>74851600</v>
+      </c>
+      <c r="U65">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V65">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W65">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X65">
+        <v>3129500</v>
+      </c>
+      <c r="Y65">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z65">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA65">
+        <v>95461.2</v>
+      </c>
+      <c r="AB65">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC65">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>164713714500</v>
       </c>
+      <c r="Q66">
+        <v>1409933385200</v>
+      </c>
+      <c r="R66">
+        <v>1245219670700</v>
+      </c>
+      <c r="S66">
+        <v>85838700</v>
+      </c>
+      <c r="T66">
+        <v>77096100</v>
+      </c>
+      <c r="U66">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V66">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W66">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X66">
+        <v>3129500</v>
+      </c>
+      <c r="Y66">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z66">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA66">
+        <v>95461.2</v>
+      </c>
+      <c r="AB66">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC66">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>150249060900</v>
       </c>
+      <c r="Q67">
+        <v>1423003217100</v>
+      </c>
+      <c r="R67">
+        <v>1272754156200</v>
+      </c>
+      <c r="S67">
+        <v>86471100</v>
+      </c>
+      <c r="T67">
+        <v>78917900</v>
+      </c>
+      <c r="U67">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V67">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W67">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X67">
+        <v>3129500</v>
+      </c>
+      <c r="Y67">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z67">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA67">
+        <v>95461.2</v>
+      </c>
+      <c r="AB67">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC67">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>145087560800</v>
       </c>
+      <c r="Q68">
+        <v>1436052612900</v>
+      </c>
+      <c r="R68">
+        <v>1290965052100</v>
+      </c>
+      <c r="S68">
+        <v>87000700</v>
+      </c>
+      <c r="T68">
+        <v>80054500</v>
+      </c>
+      <c r="U68">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V68">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W68">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X68">
+        <v>3129500</v>
+      </c>
+      <c r="Y68">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z68">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA68">
+        <v>95461.2</v>
+      </c>
+      <c r="AB68">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC68">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>141579304000</v>
       </c>
+      <c r="Q69">
+        <v>1450585231100</v>
+      </c>
+      <c r="R69">
+        <v>1309005927100</v>
+      </c>
+      <c r="S69">
+        <v>87719700</v>
+      </c>
+      <c r="T69">
+        <v>81118700</v>
+      </c>
+      <c r="U69">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V69">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W69">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X69">
+        <v>3129500</v>
+      </c>
+      <c r="Y69">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z69">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA69">
+        <v>95461.2</v>
+      </c>
+      <c r="AB69">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC69">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>141460338200</v>
       </c>
+      <c r="Q70">
+        <v>1450585231100</v>
+      </c>
+      <c r="R70">
+        <v>1309124892900</v>
+      </c>
+      <c r="S70">
+        <v>87719700</v>
+      </c>
+      <c r="T70">
+        <v>81142300</v>
+      </c>
+      <c r="U70">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V70">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W70">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X70">
+        <v>3129500</v>
+      </c>
+      <c r="Y70">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z70">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA70">
+        <v>95461.2</v>
+      </c>
+      <c r="AB70">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>106510363600</v>
       </c>
+      <c r="Q71">
+        <v>1485383207300</v>
+      </c>
+      <c r="R71">
+        <v>1378872843700</v>
+      </c>
+      <c r="S71">
+        <v>89996100</v>
+      </c>
+      <c r="T71">
+        <v>85370000</v>
+      </c>
+      <c r="U71">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V71">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W71">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X71">
+        <v>3129500</v>
+      </c>
+      <c r="Y71">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z71">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA71">
+        <v>95461.2</v>
+      </c>
+      <c r="AB71">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC71">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>111931681100</v>
       </c>
+      <c r="Q72">
+        <v>1515874821700</v>
+      </c>
+      <c r="R72">
+        <v>1403943140600</v>
+      </c>
+      <c r="S72">
+        <v>91420900</v>
+      </c>
+      <c r="T72">
+        <v>86904200</v>
+      </c>
+      <c r="U72">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V72">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W72">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X72">
+        <v>3129500</v>
+      </c>
+      <c r="Y72">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z72">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA72">
+        <v>95461.2</v>
+      </c>
+      <c r="AB72">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC72">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>112597259900</v>
       </c>
+      <c r="Q73">
+        <v>1540042337900</v>
+      </c>
+      <c r="R73">
+        <v>1427445078000</v>
+      </c>
+      <c r="S73">
+        <v>92772700</v>
+      </c>
+      <c r="T73">
+        <v>88344700</v>
+      </c>
+      <c r="U73">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V73">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W73">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X73">
+        <v>3129500</v>
+      </c>
+      <c r="Y73">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z73">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA73">
+        <v>95461.2</v>
+      </c>
+      <c r="AB73">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC73">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>109735061400</v>
       </c>
+      <c r="Q74">
+        <v>1557479366400</v>
+      </c>
+      <c r="R74">
+        <v>1447744305000</v>
+      </c>
+      <c r="S74">
+        <v>93851600</v>
+      </c>
+      <c r="T74">
+        <v>89573300</v>
+      </c>
+      <c r="U74">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V74">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W74">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X74">
+        <v>3129500</v>
+      </c>
+      <c r="Y74">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z74">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA74">
+        <v>95461.2</v>
+      </c>
+      <c r="AB74">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC74">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>112456115300</v>
       </c>
+      <c r="Q75">
+        <v>1581686631900</v>
+      </c>
+      <c r="R75">
+        <v>1469230516600</v>
+      </c>
+      <c r="S75">
+        <v>95360000</v>
+      </c>
+      <c r="T75">
+        <v>90749100</v>
+      </c>
+      <c r="U75">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V75">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W75">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X75">
+        <v>3129500</v>
+      </c>
+      <c r="Y75">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z75">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA75">
+        <v>95461.2</v>
+      </c>
+      <c r="AB75">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC75">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>105736208200</v>
       </c>
+      <c r="Q76">
+        <v>1599088653100</v>
+      </c>
+      <c r="R76">
+        <v>1493352444900</v>
+      </c>
+      <c r="S76">
+        <v>96283300</v>
+      </c>
+      <c r="T76">
+        <v>92216400</v>
+      </c>
+      <c r="U76">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V76">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W76">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X76">
+        <v>3129500</v>
+      </c>
+      <c r="Y76">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z76">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA76">
+        <v>95461.2</v>
+      </c>
+      <c r="AB76">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC76">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>102385470900</v>
       </c>
+      <c r="Q77">
+        <v>1615727331700</v>
+      </c>
+      <c r="R77">
+        <v>1513341860800</v>
+      </c>
+      <c r="S77">
+        <v>97168700</v>
+      </c>
+      <c r="T77">
+        <v>93533000</v>
+      </c>
+      <c r="U77">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V77">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W77">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X77">
+        <v>3129500</v>
+      </c>
+      <c r="Y77">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z77">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA77">
+        <v>95461.2</v>
+      </c>
+      <c r="AB77">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC77">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>113560059800</v>
       </c>
+      <c r="Q78">
+        <v>1650126806300</v>
+      </c>
+      <c r="R78">
+        <v>1536566746500</v>
+      </c>
+      <c r="S78">
+        <v>98788700</v>
+      </c>
+      <c r="T78">
+        <v>94719400</v>
+      </c>
+      <c r="U78">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V78">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W78">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X78">
+        <v>3129500</v>
+      </c>
+      <c r="Y78">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z78">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA78">
+        <v>95461.2</v>
+      </c>
+      <c r="AB78">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC78">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>160613172100</v>
       </c>
+      <c r="Q79">
+        <v>1713857552500</v>
+      </c>
+      <c r="R79">
+        <v>1553244380400</v>
+      </c>
+      <c r="S79">
+        <v>102328200</v>
+      </c>
+      <c r="T79">
+        <v>95527700</v>
+      </c>
+      <c r="U79">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V79">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W79">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X79">
+        <v>3129500</v>
+      </c>
+      <c r="Y79">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z79">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA79">
+        <v>95461.2</v>
+      </c>
+      <c r="AB79">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC79">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>173681863800</v>
       </c>
+      <c r="Q80">
+        <v>1743719233800</v>
+      </c>
+      <c r="R80">
+        <v>1570037370000</v>
+      </c>
+      <c r="S80">
+        <v>104512100</v>
+      </c>
+      <c r="T80">
+        <v>96333600</v>
+      </c>
+      <c r="U80">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V80">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W80">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X80">
+        <v>3129500</v>
+      </c>
+      <c r="Y80">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z80">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA80">
+        <v>95461.2</v>
+      </c>
+      <c r="AB80">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC80">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>190863283000</v>
       </c>
+      <c r="Q81">
+        <v>1779276682400</v>
+      </c>
+      <c r="R81">
+        <v>1588413399400</v>
+      </c>
+      <c r="S81">
+        <v>106256800</v>
+      </c>
+      <c r="T81">
+        <v>97440100</v>
+      </c>
+      <c r="U81">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V81">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W81">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X81">
+        <v>3129500</v>
+      </c>
+      <c r="Y81">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z81">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA81">
+        <v>95461.2</v>
+      </c>
+      <c r="AB81">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC81">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>221800993900</v>
       </c>
+      <c r="Q82">
+        <v>1833252022100</v>
+      </c>
+      <c r="R82">
+        <v>1611451028200</v>
+      </c>
+      <c r="S82">
+        <v>109193000</v>
+      </c>
+      <c r="T82">
+        <v>98738700</v>
+      </c>
+      <c r="U82">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V82">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W82">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X82">
+        <v>3129500</v>
+      </c>
+      <c r="Y82">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z82">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA82">
+        <v>95461.2</v>
+      </c>
+      <c r="AB82">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC82">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>234617139400</v>
       </c>
+      <c r="Q83">
+        <v>1869989467900</v>
+      </c>
+      <c r="R83">
+        <v>1635372328500</v>
+      </c>
+      <c r="S83">
+        <v>111285600</v>
+      </c>
+      <c r="T83">
+        <v>99961000</v>
+      </c>
+      <c r="U83">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V83">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W83">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X83">
+        <v>3129500</v>
+      </c>
+      <c r="Y83">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z83">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA83">
+        <v>95461.2</v>
+      </c>
+      <c r="AB83">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC83">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>223516441200</v>
       </c>
+      <c r="Q84">
+        <v>1897059091500</v>
+      </c>
+      <c r="R84">
+        <v>1673542650300</v>
+      </c>
+      <c r="S84">
+        <v>112917500</v>
+      </c>
+      <c r="T84">
+        <v>101875100</v>
+      </c>
+      <c r="U84">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V84">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W84">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X84">
+        <v>3129500</v>
+      </c>
+      <c r="Y84">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z84">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA84">
+        <v>95461.2</v>
+      </c>
+      <c r="AB84">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC84">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>207026488700</v>
       </c>
+      <c r="Q85">
+        <v>1920630054300</v>
+      </c>
+      <c r="R85">
+        <v>1713603565600</v>
+      </c>
+      <c r="S85">
+        <v>114354300</v>
+      </c>
+      <c r="T85">
+        <v>104615600</v>
+      </c>
+      <c r="U85">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V85">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W85">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X85">
+        <v>3129500</v>
+      </c>
+      <c r="Y85">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z85">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA85">
+        <v>95461.2</v>
+      </c>
+      <c r="AB85">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC85">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>182779526400</v>
       </c>
+      <c r="Q86">
+        <v>1935434785200</v>
+      </c>
+      <c r="R86">
+        <v>1752655258800</v>
+      </c>
+      <c r="S86">
+        <v>115439300</v>
+      </c>
+      <c r="T86">
+        <v>106698000</v>
+      </c>
+      <c r="U86">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V86">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W86">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X86">
+        <v>3129500</v>
+      </c>
+      <c r="Y86">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z86">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA86">
+        <v>95461.2</v>
+      </c>
+      <c r="AB86">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC86">
+        <v>16</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>143090068100</v>
       </c>
+      <c r="Q87">
+        <v>1946361711900</v>
+      </c>
+      <c r="R87">
+        <v>1803271643800</v>
+      </c>
+      <c r="S87">
+        <v>116285100</v>
+      </c>
+      <c r="T87">
+        <v>109432300</v>
+      </c>
+      <c r="U87">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V87">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W87">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X87">
+        <v>3129500</v>
+      </c>
+      <c r="Y87">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z87">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA87">
+        <v>95461.2</v>
+      </c>
+      <c r="AB87">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC87">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>91958755600</v>
       </c>
+      <c r="Q88">
+        <v>1965180720200</v>
+      </c>
+      <c r="R88">
+        <v>1873221964600</v>
+      </c>
+      <c r="S88">
+        <v>117334400</v>
+      </c>
+      <c r="T88">
+        <v>113256600</v>
+      </c>
+      <c r="U88">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V88">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W88">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X88">
+        <v>3129500</v>
+      </c>
+      <c r="Y88">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z88">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA88">
+        <v>95461.2</v>
+      </c>
+      <c r="AB88">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC88">
+        <v>33.8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>44132599300</v>
       </c>
+      <c r="Q89">
+        <v>1986756759700</v>
+      </c>
+      <c r="R89">
+        <v>1942624160400</v>
+      </c>
+      <c r="S89">
+        <v>118561500</v>
+      </c>
+      <c r="T89">
+        <v>116958200</v>
+      </c>
+      <c r="U89">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V89">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W89">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X89">
+        <v>3129500</v>
+      </c>
+      <c r="Y89">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z89">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA89">
+        <v>95461.2</v>
+      </c>
+      <c r="AB89">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC89">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>52878293800</v>
       </c>
+      <c r="Q90">
+        <v>2029351803200</v>
+      </c>
+      <c r="R90">
+        <v>1976473509400</v>
+      </c>
+      <c r="S90">
+        <v>120697300</v>
+      </c>
+      <c r="T90">
+        <v>118623700</v>
+      </c>
+      <c r="U90">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V90">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W90">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X90">
+        <v>3129500</v>
+      </c>
+      <c r="Y90">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z90">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA90">
+        <v>95461.2</v>
+      </c>
+      <c r="AB90">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC90">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>64168045300</v>
       </c>
+      <c r="Q91">
+        <v>2058141034500</v>
+      </c>
+      <c r="R91">
+        <v>1993972989200</v>
+      </c>
+      <c r="S91">
+        <v>122627900</v>
+      </c>
+      <c r="T91">
+        <v>119750200</v>
+      </c>
+      <c r="U91">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V91">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W91">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X91">
+        <v>3129500</v>
+      </c>
+      <c r="Y91">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z91">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA91">
+        <v>95461.2</v>
+      </c>
+      <c r="AB91">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC91">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>73327582400</v>
       </c>
+      <c r="Q92">
+        <v>2083154362200</v>
+      </c>
+      <c r="R92">
+        <v>2009826779800</v>
+      </c>
+      <c r="S92">
+        <v>124239600</v>
+      </c>
+      <c r="T92">
+        <v>120578400</v>
+      </c>
+      <c r="U92">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V92">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W92">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X92">
+        <v>3129500</v>
+      </c>
+      <c r="Y92">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z92">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA92">
+        <v>95461.2</v>
+      </c>
+      <c r="AB92">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC92">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>66211130000</v>
       </c>
+      <c r="Q93">
+        <v>2098288140600</v>
+      </c>
+      <c r="R93">
+        <v>2032077010600</v>
+      </c>
+      <c r="S93">
+        <v>125376300</v>
+      </c>
+      <c r="T93">
+        <v>121591000</v>
+      </c>
+      <c r="U93">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V93">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W93">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X93">
+        <v>3129500</v>
+      </c>
+      <c r="Y93">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z93">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA93">
+        <v>95461.2</v>
+      </c>
+      <c r="AB93">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC93">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>57923667300</v>
       </c>
+      <c r="Q94">
+        <v>2118281412100</v>
+      </c>
+      <c r="R94">
+        <v>2060357744800</v>
+      </c>
+      <c r="S94">
+        <v>126675300</v>
+      </c>
+      <c r="T94">
+        <v>123237300</v>
+      </c>
+      <c r="U94">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V94">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W94">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X94">
+        <v>3129500</v>
+      </c>
+      <c r="Y94">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z94">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA94">
+        <v>95461.2</v>
+      </c>
+      <c r="AB94">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC94">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>109171717900</v>
       </c>
+      <c r="Q95">
+        <v>2187025875600</v>
+      </c>
+      <c r="R95">
+        <v>2077854157700</v>
+      </c>
+      <c r="S95">
+        <v>130119600</v>
+      </c>
+      <c r="T95">
+        <v>124266400</v>
+      </c>
+      <c r="U95">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V95">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W95">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X95">
+        <v>3129500</v>
+      </c>
+      <c r="Y95">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z95">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA95">
+        <v>95461.2</v>
+      </c>
+      <c r="AB95">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC95">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>152171178200</v>
       </c>
+      <c r="Q96">
+        <v>2248425856000</v>
+      </c>
+      <c r="R96">
+        <v>2096254677800</v>
+      </c>
+      <c r="S96">
+        <v>133580200</v>
+      </c>
+      <c r="T96">
+        <v>125241400</v>
+      </c>
+      <c r="U96">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V96">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W96">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X96">
+        <v>3129500</v>
+      </c>
+      <c r="Y96">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z96">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA96">
+        <v>95461.2</v>
+      </c>
+      <c r="AB96">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC96">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>175051308100</v>
       </c>
+      <c r="Q97">
+        <v>2290214003900</v>
+      </c>
+      <c r="R97">
+        <v>2115162695800</v>
+      </c>
+      <c r="S97">
+        <v>136094100</v>
+      </c>
+      <c r="T97">
+        <v>126550800</v>
+      </c>
+      <c r="U97">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V97">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W97">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X97">
+        <v>3129500</v>
+      </c>
+      <c r="Y97">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z97">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA97">
+        <v>95461.2</v>
+      </c>
+      <c r="AB97">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC97">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>237516035400</v>
       </c>
+      <c r="Q98">
+        <v>2376349384200</v>
+      </c>
+      <c r="R98">
+        <v>2138833348800</v>
+      </c>
+      <c r="S98">
+        <v>140871800</v>
+      </c>
+      <c r="T98">
+        <v>127878000</v>
+      </c>
+      <c r="U98">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V98">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W98">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X98">
+        <v>3129500</v>
+      </c>
+      <c r="Y98">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z98">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA98">
+        <v>95461.2</v>
+      </c>
+      <c r="AB98">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC98">
+        <v>41.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>277567807900</v>
       </c>
+      <c r="Q99">
+        <v>2441189080700</v>
+      </c>
+      <c r="R99">
+        <v>2163621272800</v>
+      </c>
+      <c r="S99">
+        <v>145196000</v>
+      </c>
+      <c r="T99">
+        <v>129353500</v>
+      </c>
+      <c r="U99">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V99">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W99">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X99">
+        <v>3129500</v>
+      </c>
+      <c r="Y99">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z99">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA99">
+        <v>95461.2</v>
+      </c>
+      <c r="AB99">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC99">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>268324686300</v>
       </c>
+      <c r="Q100">
+        <v>2473726795000</v>
+      </c>
+      <c r="R100">
+        <v>2205402108700</v>
+      </c>
+      <c r="S100">
+        <v>147037300</v>
+      </c>
+      <c r="T100">
+        <v>131987600</v>
+      </c>
+      <c r="U100">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V100">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W100">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X100">
+        <v>3129500</v>
+      </c>
+      <c r="Y100">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z100">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA100">
+        <v>95461.2</v>
+      </c>
+      <c r="AB100">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC100">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>270373612400</v>
       </c>
+      <c r="Q101">
+        <v>2510738621300</v>
+      </c>
+      <c r="R101">
+        <v>2240365008900</v>
+      </c>
+      <c r="S101">
+        <v>149389900</v>
+      </c>
+      <c r="T101">
+        <v>133915100</v>
+      </c>
+      <c r="U101">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V101">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W101">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X101">
+        <v>3129500</v>
+      </c>
+      <c r="Y101">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z101">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA101">
+        <v>95461.2</v>
+      </c>
+      <c r="AB101">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC101">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>262469604300</v>
       </c>
+      <c r="Q102">
+        <v>2531438842700</v>
+      </c>
+      <c r="R102">
+        <v>2268969238400</v>
+      </c>
+      <c r="S102">
+        <v>150431400</v>
+      </c>
+      <c r="T102">
+        <v>135522600</v>
+      </c>
+      <c r="U102">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V102">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W102">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X102">
+        <v>3129500</v>
+      </c>
+      <c r="Y102">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z102">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA102">
+        <v>95461.2</v>
+      </c>
+      <c r="AB102">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC102">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>261536580900</v>
       </c>
+      <c r="Q103">
+        <v>2561285912400</v>
+      </c>
+      <c r="R103">
+        <v>2299749331500</v>
+      </c>
+      <c r="S103">
+        <v>152146100</v>
+      </c>
+      <c r="T103">
+        <v>136959800</v>
+      </c>
+      <c r="U103">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V103">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W103">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X103">
+        <v>3129500</v>
+      </c>
+      <c r="Y103">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z103">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA103">
+        <v>95461.2</v>
+      </c>
+      <c r="AB103">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC103">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>248864595500</v>
       </c>
+      <c r="Q104">
+        <v>2581256099100</v>
+      </c>
+      <c r="R104">
+        <v>2332391503600</v>
+      </c>
+      <c r="S104">
+        <v>153353100</v>
+      </c>
+      <c r="T104">
+        <v>138823500</v>
+      </c>
+      <c r="U104">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V104">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W104">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X104">
+        <v>3129500</v>
+      </c>
+      <c r="Y104">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z104">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA104">
+        <v>95461.2</v>
+      </c>
+      <c r="AB104">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC104">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>261841030100</v>
       </c>
+      <c r="Q105">
+        <v>2609593742000</v>
+      </c>
+      <c r="R105">
+        <v>2347752711900</v>
+      </c>
+      <c r="S105">
+        <v>155140100</v>
+      </c>
+      <c r="T105">
+        <v>139801000</v>
+      </c>
+      <c r="U105">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V105">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W105">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X105">
+        <v>3129500</v>
+      </c>
+      <c r="Y105">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z105">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA105">
+        <v>95461.2</v>
+      </c>
+      <c r="AB105">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC105">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>276233892500</v>
       </c>
+      <c r="Q106">
+        <v>2640052562400</v>
+      </c>
+      <c r="R106">
+        <v>2363818669900</v>
+      </c>
+      <c r="S106">
+        <v>156689700</v>
+      </c>
+      <c r="T106">
+        <v>140788500</v>
+      </c>
+      <c r="U106">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V106">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W106">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X106">
+        <v>3129500</v>
+      </c>
+      <c r="Y106">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z106">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA106">
+        <v>95461.2</v>
+      </c>
+      <c r="AB106">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC106">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>269127756300</v>
       </c>
+      <c r="Q107">
+        <v>2659172695700</v>
+      </c>
+      <c r="R107">
+        <v>2390044939400</v>
+      </c>
+      <c r="S107">
+        <v>158013700</v>
+      </c>
+      <c r="T107">
+        <v>142098000</v>
+      </c>
+      <c r="U107">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V107">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W107">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X107">
+        <v>3129500</v>
+      </c>
+      <c r="Y107">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z107">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA107">
+        <v>95461.2</v>
+      </c>
+      <c r="AB107">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC107">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>251057514000</v>
       </c>
+      <c r="Q108">
+        <v>2677859505600</v>
+      </c>
+      <c r="R108">
+        <v>2426801991600</v>
+      </c>
+      <c r="S108">
+        <v>159162400</v>
+      </c>
+      <c r="T108">
+        <v>144180800</v>
+      </c>
+      <c r="U108">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V108">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W108">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X108">
+        <v>3129500</v>
+      </c>
+      <c r="Y108">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z108">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA108">
+        <v>95461.2</v>
+      </c>
+      <c r="AB108">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC108">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>256410063500</v>
       </c>
+      <c r="Q109">
+        <v>2711594076700</v>
+      </c>
+      <c r="R109">
+        <v>2455184013200</v>
+      </c>
+      <c r="S109">
+        <v>160857400</v>
+      </c>
+      <c r="T109">
+        <v>145725600</v>
+      </c>
+      <c r="U109">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V109">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W109">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X109">
+        <v>3129500</v>
+      </c>
+      <c r="Y109">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z109">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA109">
+        <v>95461.2</v>
+      </c>
+      <c r="AB109">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC109">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>296707375700</v>
       </c>
+      <c r="Q110">
+        <v>2765258747700</v>
+      </c>
+      <c r="R110">
+        <v>2468551372000</v>
+      </c>
+      <c r="S110">
+        <v>163310500</v>
+      </c>
+      <c r="T110">
+        <v>146496700</v>
+      </c>
+      <c r="U110">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V110">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W110">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X110">
+        <v>3129500</v>
+      </c>
+      <c r="Y110">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z110">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA110">
+        <v>95461.2</v>
+      </c>
+      <c r="AB110">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC110">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>357694697600</v>
       </c>
+      <c r="Q111">
+        <v>2840523117600</v>
+      </c>
+      <c r="R111">
+        <v>2482828420000</v>
+      </c>
+      <c r="S111">
+        <v>167406200</v>
+      </c>
+      <c r="T111">
+        <v>147364000</v>
+      </c>
+      <c r="U111">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V111">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W111">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X111">
+        <v>3129500</v>
+      </c>
+      <c r="Y111">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z111">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA111">
+        <v>95461.2</v>
+      </c>
+      <c r="AB111">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC111">
+        <v>40.3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>357496295100</v>
       </c>
+      <c r="Q112">
+        <v>2879605594300</v>
+      </c>
+      <c r="R112">
+        <v>2522109299200</v>
+      </c>
+      <c r="S112">
+        <v>169976600</v>
+      </c>
+      <c r="T112">
+        <v>149561700</v>
+      </c>
+      <c r="U112">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V112">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W112">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X112">
+        <v>3129500</v>
+      </c>
+      <c r="Y112">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z112">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA112">
+        <v>95461.2</v>
+      </c>
+      <c r="AB112">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC112">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>341909252500</v>
       </c>
+      <c r="Q113">
+        <v>2905129589100</v>
+      </c>
+      <c r="R113">
+        <v>2563220336600</v>
+      </c>
+      <c r="S113">
+        <v>171343500</v>
+      </c>
+      <c r="T113">
+        <v>151555300</v>
+      </c>
+      <c r="U113">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V113">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W113">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X113">
+        <v>3129500</v>
+      </c>
+      <c r="Y113">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z113">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA113">
+        <v>95461.2</v>
+      </c>
+      <c r="AB113">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC113">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>250420902500</v>
       </c>
+      <c r="Q114">
+        <v>2923208523400</v>
+      </c>
+      <c r="R114">
+        <v>2672787620900</v>
+      </c>
+      <c r="S114">
+        <v>172395600</v>
+      </c>
+      <c r="T114">
+        <v>156933700</v>
+      </c>
+      <c r="U114">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V114">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W114">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X114">
+        <v>3129500</v>
+      </c>
+      <c r="Y114">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z114">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA114">
+        <v>95461.2</v>
+      </c>
+      <c r="AB114">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC114">
+        <v>60.4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>179696277400</v>
       </c>
+      <c r="Q115">
+        <v>2947369119300</v>
+      </c>
+      <c r="R115">
+        <v>2767672841900</v>
+      </c>
+      <c r="S115">
+        <v>173961900</v>
+      </c>
+      <c r="T115">
+        <v>162778100</v>
+      </c>
+      <c r="U115">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V115">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W115">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X115">
+        <v>3129500</v>
+      </c>
+      <c r="Y115">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z115">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA115">
+        <v>95461.2</v>
+      </c>
+      <c r="AB115">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC115">
+        <v>46.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>179653647400</v>
       </c>
+      <c r="Q116">
+        <v>2947394689300</v>
+      </c>
+      <c r="R116">
+        <v>2767741041900</v>
+      </c>
+      <c r="S116">
+        <v>173963700</v>
+      </c>
+      <c r="T116">
+        <v>162779100</v>
+      </c>
+      <c r="U116">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V116">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W116">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X116">
+        <v>3129500</v>
+      </c>
+      <c r="Y116">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z116">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA116">
+        <v>95461.2</v>
+      </c>
+      <c r="AB116">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>175610114500</v>
       </c>
+      <c r="Q117">
+        <v>2953700883700</v>
+      </c>
+      <c r="R117">
+        <v>2778090769200</v>
+      </c>
+      <c r="S117">
+        <v>174402800</v>
+      </c>
+      <c r="T117">
+        <v>163329300</v>
+      </c>
+      <c r="U117">
+        <v>25462938652.6</v>
+      </c>
+      <c r="V117">
+        <v>23949058355.2</v>
+      </c>
+      <c r="W117">
+        <v>53235851525.9</v>
+      </c>
+      <c r="X117">
+        <v>3129500</v>
+      </c>
+      <c r="Y117">
+        <v>1503472.4</v>
+      </c>
+      <c r="Z117">
+        <v>1408011.2</v>
+      </c>
+      <c r="AA117">
+        <v>95461.2</v>
+      </c>
+      <c r="AB117">
+        <v>1513880297.4</v>
+      </c>
+      <c r="AC117">
+        <v>2.7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>